--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5377,28 +5377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1598.930645901264</v>
+        <v>1823.312957237814</v>
       </c>
       <c r="AB2" t="n">
-        <v>2187.727449563754</v>
+        <v>2494.737226983358</v>
       </c>
       <c r="AC2" t="n">
-        <v>1978.933812272149</v>
+        <v>2256.643007425755</v>
       </c>
       <c r="AD2" t="n">
-        <v>1598930.645901264</v>
+        <v>1823312.957237814</v>
       </c>
       <c r="AE2" t="n">
-        <v>2187727.449563754</v>
+        <v>2494737.226983358</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.844947118660105e-07</v>
+        <v>8.42645226396246e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.00520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1978933.812272149</v>
+        <v>2256643.007425755</v>
       </c>
     </row>
     <row r="3">
@@ -5483,28 +5483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1130.177861050239</v>
+        <v>1311.222651700228</v>
       </c>
       <c r="AB3" t="n">
-        <v>1546.359209417229</v>
+        <v>1794.072679117005</v>
       </c>
       <c r="AC3" t="n">
-        <v>1398.77685679923</v>
+        <v>1622.848900618897</v>
       </c>
       <c r="AD3" t="n">
-        <v>1130177.861050239</v>
+        <v>1311222.651700228</v>
       </c>
       <c r="AE3" t="n">
-        <v>1546359.209417229</v>
+        <v>1794072.679117005</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.546776496167024e-07</v>
+        <v>1.087991911658617e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.2734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1398776.85679923</v>
+        <v>1622848.900618897</v>
       </c>
     </row>
     <row r="4">
@@ -5589,28 +5589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>999.99949420553</v>
+        <v>1163.948141465145</v>
       </c>
       <c r="AB4" t="n">
-        <v>1368.243424836079</v>
+        <v>1592.565196920528</v>
       </c>
       <c r="AC4" t="n">
-        <v>1237.660192711431</v>
+        <v>1440.573009705724</v>
       </c>
       <c r="AD4" t="n">
-        <v>999999.49420553</v>
+        <v>1163948.141465145</v>
       </c>
       <c r="AE4" t="n">
-        <v>1368243.424836079</v>
+        <v>1592565.196920528</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.226481220800154e-07</v>
+        <v>1.185982523026608e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.94010416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1237660.192711431</v>
+        <v>1440573.009705724</v>
       </c>
     </row>
     <row r="5">
@@ -5695,28 +5695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>946.9366864791028</v>
+        <v>1102.166714597214</v>
       </c>
       <c r="AB5" t="n">
-        <v>1295.640550338922</v>
+        <v>1508.033123075635</v>
       </c>
       <c r="AC5" t="n">
-        <v>1171.986434657508</v>
+        <v>1364.108558347077</v>
       </c>
       <c r="AD5" t="n">
-        <v>946936.6864791028</v>
+        <v>1102166.714597214</v>
       </c>
       <c r="AE5" t="n">
-        <v>1295640.550338922</v>
+        <v>1508033.123075635</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.584306544585386e-07</v>
+        <v>1.237568926607353e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.40364583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1171986.434657508</v>
+        <v>1364108.558347077</v>
       </c>
     </row>
     <row r="6">
@@ -5801,28 +5801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>911.1169517807615</v>
+        <v>1066.261639044301</v>
       </c>
       <c r="AB6" t="n">
-        <v>1246.630409069485</v>
+        <v>1458.906214684</v>
       </c>
       <c r="AC6" t="n">
-        <v>1127.653752484661</v>
+        <v>1319.670253142291</v>
       </c>
       <c r="AD6" t="n">
-        <v>911116.9517807615</v>
+        <v>1066261.639044301</v>
       </c>
       <c r="AE6" t="n">
-        <v>1246630.409069485</v>
+        <v>1458906.214684</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.811186006241775e-07</v>
+        <v>1.270277331226065e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.4921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1127653.752484661</v>
+        <v>1319670.253142291</v>
       </c>
     </row>
     <row r="7">
@@ -5907,28 +5907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>881.1395764454793</v>
+        <v>1036.369515055039</v>
       </c>
       <c r="AB7" t="n">
-        <v>1205.61404162729</v>
+        <v>1418.006491894455</v>
       </c>
       <c r="AC7" t="n">
-        <v>1090.551929584316</v>
+        <v>1282.673942492658</v>
       </c>
       <c r="AD7" t="n">
-        <v>881139.5764454793</v>
+        <v>1036369.515055039</v>
       </c>
       <c r="AE7" t="n">
-        <v>1205614.04162729</v>
+        <v>1418006.491894455</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.979711696896006e-07</v>
+        <v>1.294573080335848e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.84114583333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1090551.929584316</v>
+        <v>1282673.942492658</v>
       </c>
     </row>
     <row r="8">
@@ -6013,28 +6013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>868.7521773013036</v>
+        <v>1015.348837623931</v>
       </c>
       <c r="AB8" t="n">
-        <v>1188.665055624748</v>
+        <v>1389.245073666375</v>
       </c>
       <c r="AC8" t="n">
-        <v>1075.220531017805</v>
+        <v>1256.657473653362</v>
       </c>
       <c r="AD8" t="n">
-        <v>868752.1773013036</v>
+        <v>1015348.837623931</v>
       </c>
       <c r="AE8" t="n">
-        <v>1188665.055624748</v>
+        <v>1389245.073666375</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.076345541675578e-07</v>
+        <v>1.308504437858633e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.48958333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1075220.531017805</v>
+        <v>1256657.473653362</v>
       </c>
     </row>
     <row r="9">
@@ -6119,28 +6119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>855.8441159550187</v>
+        <v>1002.440776277646</v>
       </c>
       <c r="AB9" t="n">
-        <v>1171.003676627285</v>
+        <v>1371.583694668911</v>
       </c>
       <c r="AC9" t="n">
-        <v>1059.244729243959</v>
+        <v>1240.681671879516</v>
       </c>
       <c r="AD9" t="n">
-        <v>855844.1159550187</v>
+        <v>1002440.776277646</v>
       </c>
       <c r="AE9" t="n">
-        <v>1171003.676627285</v>
+        <v>1371583.694668911</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.163175952926788e-07</v>
+        <v>1.321022469255917e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.1640625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1059244.729243959</v>
+        <v>1240681.671879516</v>
       </c>
     </row>
     <row r="10">
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>836.8307422113394</v>
+        <v>983.5126538799871</v>
       </c>
       <c r="AB10" t="n">
-        <v>1144.988739860334</v>
+        <v>1345.68540255461</v>
       </c>
       <c r="AC10" t="n">
-        <v>1035.712621529852</v>
+        <v>1217.255076416121</v>
       </c>
       <c r="AD10" t="n">
-        <v>836830.7422113394</v>
+        <v>983512.6538799871</v>
       </c>
       <c r="AE10" t="n">
-        <v>1144988.739860334</v>
+        <v>1345685.40255461</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.225497780357091e-07</v>
+        <v>1.330007185339452e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>33</v>
+        <v>32.94270833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1035712.621529852</v>
+        <v>1217255.076416122</v>
       </c>
     </row>
     <row r="11">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>828.1075860269356</v>
+        <v>974.7894976955832</v>
       </c>
       <c r="AB11" t="n">
-        <v>1133.053332730342</v>
+        <v>1333.749995424618</v>
       </c>
       <c r="AC11" t="n">
-        <v>1024.916312904898</v>
+        <v>1206.458767791167</v>
       </c>
       <c r="AD11" t="n">
-        <v>828107.5860269356</v>
+        <v>974789.4976955833</v>
       </c>
       <c r="AE11" t="n">
-        <v>1133053.332730342</v>
+        <v>1333749.995424618</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.283851551359249e-07</v>
+        <v>1.33841984084838e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>33</v>
+        <v>32.734375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1024916.312904898</v>
+        <v>1206458.767791167</v>
       </c>
     </row>
     <row r="12">
@@ -6437,28 +6437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>818.0238377602759</v>
+        <v>964.7057494289237</v>
       </c>
       <c r="AB12" t="n">
-        <v>1119.256303488322</v>
+        <v>1319.952966182598</v>
       </c>
       <c r="AC12" t="n">
-        <v>1012.436052769484</v>
+        <v>1193.978507655753</v>
       </c>
       <c r="AD12" t="n">
-        <v>818023.8377602759</v>
+        <v>964705.7494289237</v>
       </c>
       <c r="AE12" t="n">
-        <v>1119256.303488322</v>
+        <v>1319952.966182598</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.33310213408507e-07</v>
+        <v>1.345520122097915e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>33</v>
+        <v>32.56510416666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1012436.052769484</v>
+        <v>1193978.507655753</v>
       </c>
     </row>
     <row r="13">
@@ -6543,28 +6543,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>807.9704419954047</v>
+        <v>954.4817614634603</v>
       </c>
       <c r="AB13" t="n">
-        <v>1105.500803878306</v>
+        <v>1305.964054797736</v>
       </c>
       <c r="AC13" t="n">
-        <v>999.9933587362832</v>
+        <v>1181.324678339901</v>
       </c>
       <c r="AD13" t="n">
-        <v>807970.4419954047</v>
+        <v>954481.7614634603</v>
       </c>
       <c r="AE13" t="n">
-        <v>1105500.803878306</v>
+        <v>1305964.054797736</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.379551735802787e-07</v>
+        <v>1.352216595883021e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>33</v>
+        <v>32.40885416666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>999993.3587362831</v>
+        <v>1181324.678339901</v>
       </c>
     </row>
     <row r="14">
@@ -6649,28 +6649,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>803.8214673545458</v>
+        <v>950.3327868226014</v>
       </c>
       <c r="AB14" t="n">
-        <v>1099.823993734841</v>
+        <v>1300.287244654269</v>
       </c>
       <c r="AC14" t="n">
-        <v>994.8583353854567</v>
+        <v>1176.189654989075</v>
       </c>
       <c r="AD14" t="n">
-        <v>803821.4673545458</v>
+        <v>950332.7868226015</v>
       </c>
       <c r="AE14" t="n">
-        <v>1099823.993734841</v>
+        <v>1300287.244654269</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.397291282187443e-07</v>
+        <v>1.354774043157735e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>33</v>
+        <v>32.34375</v>
       </c>
       <c r="AH14" t="n">
-        <v>994858.3353854567</v>
+        <v>1176189.654989075</v>
       </c>
     </row>
     <row r="15">
@@ -6755,28 +6755,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>796.0158970870211</v>
+        <v>934.0645304687364</v>
       </c>
       <c r="AB15" t="n">
-        <v>1089.144068137356</v>
+        <v>1278.028298606094</v>
       </c>
       <c r="AC15" t="n">
-        <v>985.1976868976266</v>
+        <v>1156.05507151111</v>
       </c>
       <c r="AD15" t="n">
-        <v>796015.8970870211</v>
+        <v>934064.5304687364</v>
       </c>
       <c r="AE15" t="n">
-        <v>1089144.068137357</v>
+        <v>1278028.298606094</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.419465715168264e-07</v>
+        <v>1.357970852251128e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>33</v>
+        <v>32.265625</v>
       </c>
       <c r="AH15" t="n">
-        <v>985197.6868976266</v>
+        <v>1156055.07151111</v>
       </c>
     </row>
     <row r="16">
@@ -6861,28 +6861,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>785.1431195538898</v>
+        <v>923.1917529356051</v>
       </c>
       <c r="AB16" t="n">
-        <v>1074.267454243435</v>
+        <v>1263.151684712173</v>
       </c>
       <c r="AC16" t="n">
-        <v>971.7408761542825</v>
+        <v>1142.598260767766</v>
       </c>
       <c r="AD16" t="n">
-        <v>785143.1195538898</v>
+        <v>923191.7529356051</v>
       </c>
       <c r="AE16" t="n">
-        <v>1074267.454243435</v>
+        <v>1263151.684712173</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.471283863818178e-07</v>
+        <v>1.365441290343056e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>33</v>
+        <v>32.08333333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>971740.8761542826</v>
+        <v>1142598.260767766</v>
       </c>
     </row>
     <row r="17">
@@ -6967,28 +6967,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>777.4533507522782</v>
+        <v>915.5019841339936</v>
       </c>
       <c r="AB17" t="n">
-        <v>1063.745973320414</v>
+        <v>1252.630203789151</v>
       </c>
       <c r="AC17" t="n">
-        <v>962.223550603563</v>
+        <v>1133.080935217047</v>
       </c>
       <c r="AD17" t="n">
-        <v>777453.3507522782</v>
+        <v>915501.9841339936</v>
       </c>
       <c r="AE17" t="n">
-        <v>1063745.973320414</v>
+        <v>1252630.203789151</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.48972365545486e-07</v>
+        <v>1.368099689483877e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>33</v>
+        <v>32.03125</v>
       </c>
       <c r="AH17" t="n">
-        <v>962223.550603563</v>
+        <v>1133080.935217047</v>
       </c>
     </row>
     <row r="18">
@@ -7073,28 +7073,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>774.9780331080917</v>
+        <v>913.026666489807</v>
       </c>
       <c r="AB18" t="n">
-        <v>1060.35913451633</v>
+        <v>1249.243364985068</v>
       </c>
       <c r="AC18" t="n">
-        <v>959.1599469414833</v>
+        <v>1130.017331554967</v>
       </c>
       <c r="AD18" t="n">
-        <v>774978.0331080917</v>
+        <v>913026.666489807</v>
       </c>
       <c r="AE18" t="n">
-        <v>1060359.13451633</v>
+        <v>1249243.364985068</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.492057806294947e-07</v>
+        <v>1.368436195704234e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>33</v>
+        <v>32.01822916666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>959159.9469414833</v>
+        <v>1130017.331554967</v>
       </c>
     </row>
     <row r="19">
@@ -7179,28 +7179,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>759.5858556462371</v>
+        <v>906.1824264603132</v>
       </c>
       <c r="AB19" t="n">
-        <v>1039.298878258076</v>
+        <v>1239.878773830154</v>
       </c>
       <c r="AC19" t="n">
-        <v>940.1096519822619</v>
+        <v>1121.546483836592</v>
       </c>
       <c r="AD19" t="n">
-        <v>759585.855646237</v>
+        <v>906182.4264603131</v>
       </c>
       <c r="AE19" t="n">
-        <v>1039298.878258076</v>
+        <v>1239878.773830154</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.512131503519688e-07</v>
+        <v>1.371330149199305e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>32</v>
+        <v>31.953125</v>
       </c>
       <c r="AH19" t="n">
-        <v>940109.6519822619</v>
+        <v>1121546.483836592</v>
       </c>
     </row>
     <row r="20">
@@ -7285,28 +7285,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>760.8909774820584</v>
+        <v>907.4875482961345</v>
       </c>
       <c r="AB20" t="n">
-        <v>1041.084603531759</v>
+        <v>1241.664499103837</v>
       </c>
       <c r="AC20" t="n">
-        <v>941.7249501421052</v>
+        <v>1123.161781996436</v>
       </c>
       <c r="AD20" t="n">
-        <v>760890.9774820583</v>
+        <v>907487.5482961345</v>
       </c>
       <c r="AE20" t="n">
-        <v>1041084.603531759</v>
+        <v>1241664.499103837</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.508630277259558e-07</v>
+        <v>1.37082538986877e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>32</v>
+        <v>31.96614583333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>941724.9501421052</v>
+        <v>1123161.781996436</v>
       </c>
     </row>
     <row r="21">
@@ -7391,28 +7391,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>762.5741813984899</v>
+        <v>909.1707522125661</v>
       </c>
       <c r="AB21" t="n">
-        <v>1043.387637387937</v>
+        <v>1243.967532960015</v>
       </c>
       <c r="AC21" t="n">
-        <v>943.8081856793777</v>
+        <v>1125.245017533708</v>
       </c>
       <c r="AD21" t="n">
-        <v>762574.18139849</v>
+        <v>909170.7522125661</v>
       </c>
       <c r="AE21" t="n">
-        <v>1043387.637387937</v>
+        <v>1243967.532960015</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.508630277259558e-07</v>
+        <v>1.37082538986877e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>32</v>
+        <v>31.96614583333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>943808.1856793778</v>
+        <v>1125245.017533708</v>
       </c>
     </row>
   </sheetData>
@@ -7688,28 +7688,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1272.465776663361</v>
+        <v>1474.398601128862</v>
       </c>
       <c r="AB2" t="n">
-        <v>1741.04381285891</v>
+        <v>2017.337211940083</v>
       </c>
       <c r="AC2" t="n">
-        <v>1574.881034929994</v>
+        <v>1824.80537978308</v>
       </c>
       <c r="AD2" t="n">
-        <v>1272465.776663361</v>
+        <v>1474398.601128862</v>
       </c>
       <c r="AE2" t="n">
-        <v>1741043.81285891</v>
+        <v>2017337.211940083</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.756180591868515e-07</v>
+        <v>9.890794226056278e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.53645833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1574881.034929994</v>
+        <v>1824805.37978308</v>
       </c>
     </row>
     <row r="3">
@@ -7794,28 +7794,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>954.3524579809473</v>
+        <v>1122.530247371865</v>
       </c>
       <c r="AB3" t="n">
-        <v>1305.787136068494</v>
+        <v>1535.895406993574</v>
       </c>
       <c r="AC3" t="n">
-        <v>1181.164644485872</v>
+        <v>1389.311704992849</v>
       </c>
       <c r="AD3" t="n">
-        <v>954352.4579809473</v>
+        <v>1122530.247371865</v>
       </c>
       <c r="AE3" t="n">
-        <v>1305787.136068494</v>
+        <v>1535895.406993574</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.316766552027421e-07</v>
+        <v>1.217543336411924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.79947916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1181164.644485872</v>
+        <v>1389311.704992849</v>
       </c>
     </row>
     <row r="4">
@@ -7900,28 +7900,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>869.9001352587559</v>
+        <v>1021.243167048218</v>
       </c>
       <c r="AB4" t="n">
-        <v>1190.235742346465</v>
+        <v>1397.309955224146</v>
       </c>
       <c r="AC4" t="n">
-        <v>1076.641313603274</v>
+        <v>1263.952654234392</v>
       </c>
       <c r="AD4" t="n">
-        <v>869900.1352587559</v>
+        <v>1021243.167048218</v>
       </c>
       <c r="AE4" t="n">
-        <v>1190235.742346465</v>
+        <v>1397309.955224146</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.913667138985926e-07</v>
+        <v>1.304927336865145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.2734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1076641.313603274</v>
+        <v>1263952.654234392</v>
       </c>
     </row>
     <row r="5">
@@ -8006,28 +8006,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>828.9926380288472</v>
+        <v>972.0035871178782</v>
       </c>
       <c r="AB5" t="n">
-        <v>1134.264299925097</v>
+        <v>1329.938189666501</v>
       </c>
       <c r="AC5" t="n">
-        <v>1026.011707090188</v>
+        <v>1203.010755424702</v>
       </c>
       <c r="AD5" t="n">
-        <v>828992.6380288472</v>
+        <v>972003.5871178781</v>
       </c>
       <c r="AE5" t="n">
-        <v>1134264.299925097</v>
+        <v>1329938.189666501</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.212841826381389e-07</v>
+        <v>1.348725385635994e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.12760416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1026011.707090188</v>
+        <v>1203010.755424702</v>
       </c>
     </row>
     <row r="6">
@@ -8112,28 +8112,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>798.4958214610359</v>
+        <v>941.4214296954952</v>
       </c>
       <c r="AB6" t="n">
-        <v>1092.537210072426</v>
+        <v>1288.094332691633</v>
       </c>
       <c r="AC6" t="n">
-        <v>988.2669921287173</v>
+        <v>1165.160417431293</v>
       </c>
       <c r="AD6" t="n">
-        <v>798495.8214610359</v>
+        <v>941421.4296954953</v>
       </c>
       <c r="AE6" t="n">
-        <v>1092537.210072425</v>
+        <v>1288094.332691633</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.402633032428876e-07</v>
+        <v>1.376510104226703e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.4375</v>
       </c>
       <c r="AH6" t="n">
-        <v>988266.9921287174</v>
+        <v>1165160.417431293</v>
       </c>
     </row>
     <row r="7">
@@ -8218,28 +8218,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>774.5007500873969</v>
+        <v>917.5116096678768</v>
       </c>
       <c r="AB7" t="n">
-        <v>1059.706094831175</v>
+        <v>1255.379862103031</v>
       </c>
       <c r="AC7" t="n">
-        <v>958.5692324473321</v>
+        <v>1135.56817000062</v>
       </c>
       <c r="AD7" t="n">
-        <v>774500.7500873969</v>
+        <v>917511.6096678767</v>
       </c>
       <c r="AE7" t="n">
-        <v>1059706.094831175</v>
+        <v>1255379.862103031</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.536404442289318e-07</v>
+        <v>1.396093735396235e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.96875</v>
       </c>
       <c r="AH7" t="n">
-        <v>958569.2324473321</v>
+        <v>1135568.17000062</v>
       </c>
     </row>
     <row r="8">
@@ -8324,28 +8324,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>760.1997413107439</v>
+        <v>903.2106008912237</v>
       </c>
       <c r="AB8" t="n">
-        <v>1040.138823706979</v>
+        <v>1235.812590978835</v>
       </c>
       <c r="AC8" t="n">
-        <v>940.8694342163918</v>
+        <v>1117.86837176968</v>
       </c>
       <c r="AD8" t="n">
-        <v>760199.7413107438</v>
+        <v>903210.6008912238</v>
       </c>
       <c r="AE8" t="n">
-        <v>1040138.823706979</v>
+        <v>1235812.590978835</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.638543984475177e-07</v>
+        <v>1.411046580133983e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>33</v>
+        <v>32.6171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>940869.4342163919</v>
+        <v>1117868.37176968</v>
       </c>
     </row>
     <row r="9">
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>747.1369409982503</v>
+        <v>889.977208378138</v>
       </c>
       <c r="AB9" t="n">
-        <v>1022.265724029348</v>
+        <v>1217.706079526358</v>
       </c>
       <c r="AC9" t="n">
-        <v>924.702118086941</v>
+        <v>1101.489920357578</v>
       </c>
       <c r="AD9" t="n">
-        <v>747136.9409982504</v>
+        <v>889977.208378138</v>
       </c>
       <c r="AE9" t="n">
-        <v>1022265.724029348</v>
+        <v>1217706.079526358</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.721607820200794e-07</v>
+        <v>1.423206813206761e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>33</v>
+        <v>32.34375</v>
       </c>
       <c r="AH9" t="n">
-        <v>924702.1180869411</v>
+        <v>1101489.920357578</v>
       </c>
     </row>
     <row r="10">
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>738.1278075403718</v>
+        <v>872.7213330743997</v>
       </c>
       <c r="AB10" t="n">
-        <v>1009.939030177361</v>
+        <v>1194.095829660293</v>
       </c>
       <c r="AC10" t="n">
-        <v>913.5518665955645</v>
+        <v>1080.132999601537</v>
       </c>
       <c r="AD10" t="n">
-        <v>738127.8075403718</v>
+        <v>872721.3330743997</v>
       </c>
       <c r="AE10" t="n">
-        <v>1009939.030177361</v>
+        <v>1194095.829660292</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.768693424754562e-07</v>
+        <v>1.430099968582319e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>33</v>
+        <v>32.1875</v>
       </c>
       <c r="AH10" t="n">
-        <v>913551.8665955645</v>
+        <v>1080132.999601536</v>
       </c>
     </row>
     <row r="11">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>724.1269296398011</v>
+        <v>858.7204551738291</v>
       </c>
       <c r="AB11" t="n">
-        <v>990.7824113586611</v>
+        <v>1174.939210841592</v>
       </c>
       <c r="AC11" t="n">
-        <v>896.2235285904375</v>
+        <v>1062.804661596409</v>
       </c>
       <c r="AD11" t="n">
-        <v>724126.9296398012</v>
+        <v>858720.4551738291</v>
       </c>
       <c r="AE11" t="n">
-        <v>990782.4113586611</v>
+        <v>1174939.210841592</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.819159534250647e-07</v>
+        <v>1.437488017164327e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>33</v>
+        <v>32.01822916666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>896223.5285904375</v>
+        <v>1062804.661596409</v>
       </c>
     </row>
     <row r="12">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>709.2237114103372</v>
+        <v>852.1492301362454</v>
       </c>
       <c r="AB12" t="n">
-        <v>970.3911706935229</v>
+        <v>1165.948170843182</v>
       </c>
       <c r="AC12" t="n">
-        <v>877.7783993150942</v>
+        <v>1054.671713836443</v>
       </c>
       <c r="AD12" t="n">
-        <v>709223.7114103371</v>
+        <v>852149.2301362454</v>
       </c>
       <c r="AE12" t="n">
-        <v>970391.1706935229</v>
+        <v>1165948.170843182</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.839442563904579e-07</v>
+        <v>1.440457376403028e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>31.953125</v>
       </c>
       <c r="AH12" t="n">
-        <v>877778.3993150942</v>
+        <v>1054671.713836443</v>
       </c>
     </row>
     <row r="13">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>700.7638738615227</v>
+        <v>843.6893925874311</v>
       </c>
       <c r="AB13" t="n">
-        <v>958.816047737543</v>
+        <v>1154.373047887202</v>
       </c>
       <c r="AC13" t="n">
-        <v>867.3079898482462</v>
+        <v>1044.201304369595</v>
       </c>
       <c r="AD13" t="n">
-        <v>700763.8738615228</v>
+        <v>843689.3925874311</v>
       </c>
       <c r="AE13" t="n">
-        <v>958816.047737543</v>
+        <v>1154373.047887202</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.885079380625921e-07</v>
+        <v>1.447138434690107e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>32</v>
+        <v>31.80989583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>867307.9898482462</v>
+        <v>1044201.304369595</v>
       </c>
     </row>
     <row r="14">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>693.8013413763553</v>
+        <v>836.7268601022635</v>
       </c>
       <c r="AB14" t="n">
-        <v>949.2896036260822</v>
+        <v>1144.846603775741</v>
       </c>
       <c r="AC14" t="n">
-        <v>858.6907361923351</v>
+        <v>1035.584050713684</v>
       </c>
       <c r="AD14" t="n">
-        <v>693801.3413763553</v>
+        <v>836726.8601022635</v>
       </c>
       <c r="AE14" t="n">
-        <v>949289.6036260822</v>
+        <v>1144846.603775741</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.906569733473534e-07</v>
+        <v>1.450284541502541e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>32</v>
+        <v>31.73177083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>858690.736192335</v>
+        <v>1035584.050713684</v>
       </c>
     </row>
     <row r="15">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>696.8966443998066</v>
+        <v>839.8221631257148</v>
       </c>
       <c r="AB15" t="n">
-        <v>953.5247337779001</v>
+        <v>1149.081733927559</v>
       </c>
       <c r="AC15" t="n">
-        <v>862.5216714665058</v>
+        <v>1039.414985987855</v>
       </c>
       <c r="AD15" t="n">
-        <v>696896.6443998066</v>
+        <v>839822.1631257149</v>
       </c>
       <c r="AE15" t="n">
-        <v>953524.7337779001</v>
+        <v>1149081.733927559</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.901498976060054e-07</v>
+        <v>1.449542201692865e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>32</v>
+        <v>31.7578125</v>
       </c>
       <c r="AH15" t="n">
-        <v>862521.6714665059</v>
+        <v>1039414.985987855</v>
       </c>
     </row>
   </sheetData>
@@ -9363,28 +9363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>703.1507127430243</v>
+        <v>850.6438578390099</v>
       </c>
       <c r="AB2" t="n">
-        <v>962.081825995113</v>
+        <v>1163.888454053766</v>
       </c>
       <c r="AC2" t="n">
-        <v>870.2620868124621</v>
+        <v>1052.808573526578</v>
       </c>
       <c r="AD2" t="n">
-        <v>703150.7127430243</v>
+        <v>850643.85783901</v>
       </c>
       <c r="AE2" t="n">
-        <v>962081.825995113</v>
+        <v>1163888.454053766</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.55970852220078e-07</v>
+        <v>1.479004906653478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.69270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>870262.0868124622</v>
+        <v>1052808.573526578</v>
       </c>
     </row>
     <row r="3">
@@ -9469,28 +9469,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>604.0886040914384</v>
+        <v>735.9619203729237</v>
       </c>
       <c r="AB3" t="n">
-        <v>826.5406786262209</v>
+        <v>1006.975567802661</v>
       </c>
       <c r="AC3" t="n">
-        <v>747.656796315262</v>
+        <v>910.8712329106598</v>
       </c>
       <c r="AD3" t="n">
-        <v>604088.6040914383</v>
+        <v>735961.9203729237</v>
       </c>
       <c r="AE3" t="n">
-        <v>826540.6786262209</v>
+        <v>1006975.567802661</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.058088369974139e-06</v>
+        <v>1.636993311281907e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.15104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>747656.796315262</v>
+        <v>910871.2329106599</v>
       </c>
     </row>
     <row r="4">
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>562.9227412844522</v>
+        <v>687.1141096862692</v>
       </c>
       <c r="AB4" t="n">
-        <v>770.2157290240098</v>
+        <v>940.1398382078656</v>
       </c>
       <c r="AC4" t="n">
-        <v>696.7074208505226</v>
+        <v>850.4142115438564</v>
       </c>
       <c r="AD4" t="n">
-        <v>562922.7412844521</v>
+        <v>687114.1096862692</v>
       </c>
       <c r="AE4" t="n">
-        <v>770215.7290240098</v>
+        <v>940139.8382078656</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.094732123046837e-06</v>
+        <v>1.693685720330631e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.04427083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>696707.4208505226</v>
+        <v>850414.2115438564</v>
       </c>
     </row>
     <row r="5">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>540.7362571536407</v>
+        <v>672.6094839265749</v>
       </c>
       <c r="AB5" t="n">
-        <v>739.8592026376339</v>
+        <v>920.2939693445254</v>
       </c>
       <c r="AC5" t="n">
-        <v>669.24807873681</v>
+        <v>832.4624045509813</v>
       </c>
       <c r="AD5" t="n">
-        <v>540736.2571536407</v>
+        <v>672609.4839265748</v>
       </c>
       <c r="AE5" t="n">
-        <v>739859.2026376339</v>
+        <v>920293.9693445254</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.107045501836706e-06</v>
+        <v>1.712736037194798e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.69270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>669248.07873681</v>
+        <v>832462.4045509814</v>
       </c>
     </row>
     <row r="6">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>542.8067981476692</v>
+        <v>674.6800249206035</v>
       </c>
       <c r="AB6" t="n">
-        <v>742.6922081714855</v>
+        <v>923.126974878377</v>
       </c>
       <c r="AC6" t="n">
-        <v>671.8107061986591</v>
+        <v>835.0250320128305</v>
       </c>
       <c r="AD6" t="n">
-        <v>542806.7981476692</v>
+        <v>674680.0249206035</v>
       </c>
       <c r="AE6" t="n">
-        <v>742692.2081714855</v>
+        <v>923126.974878377</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.106856894284126e-06</v>
+        <v>1.712444238030576e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.69270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>671810.7061986591</v>
+        <v>835025.0320128305</v>
       </c>
     </row>
   </sheetData>
@@ -10084,28 +10084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>878.058890795043</v>
+        <v>1046.338984832536</v>
       </c>
       <c r="AB2" t="n">
-        <v>1201.398911610104</v>
+        <v>1431.647160265992</v>
       </c>
       <c r="AC2" t="n">
-        <v>1086.739085659997</v>
+        <v>1295.012764619614</v>
       </c>
       <c r="AD2" t="n">
-        <v>878058.890795043</v>
+        <v>1046338.984832536</v>
       </c>
       <c r="AE2" t="n">
-        <v>1201398.911610104</v>
+        <v>1431647.160265992</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.461621669260914e-07</v>
+        <v>1.278799779197039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.66145833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1086739.085659998</v>
+        <v>1295012.764619614</v>
       </c>
     </row>
     <row r="3">
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>721.457582521715</v>
+        <v>865.7586208785459</v>
       </c>
       <c r="AB3" t="n">
-        <v>987.1300928684121</v>
+        <v>1184.569139660743</v>
       </c>
       <c r="AC3" t="n">
-        <v>892.919782250837</v>
+        <v>1071.51552352475</v>
       </c>
       <c r="AD3" t="n">
-        <v>721457.5825217151</v>
+        <v>865758.6208785459</v>
       </c>
       <c r="AE3" t="n">
-        <v>987130.0928684121</v>
+        <v>1184569.139660743</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.694507295241813e-07</v>
+        <v>1.4651250402291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.62239583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>892919.782250837</v>
+        <v>1071515.52352475</v>
       </c>
     </row>
     <row r="4">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>674.2466739981239</v>
+        <v>810.4409954971896</v>
       </c>
       <c r="AB4" t="n">
-        <v>922.5340450281471</v>
+        <v>1108.881124172577</v>
       </c>
       <c r="AC4" t="n">
-        <v>834.4886905553243</v>
+        <v>1003.051066005978</v>
       </c>
       <c r="AD4" t="n">
-        <v>674246.673998124</v>
+        <v>810440.9954971897</v>
       </c>
       <c r="AE4" t="n">
-        <v>922534.0450281472</v>
+        <v>1108881.124172577</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.012935530925598e-06</v>
+        <v>1.530843358305847e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.13802083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>834488.6905553243</v>
+        <v>1003051.066005978</v>
       </c>
     </row>
     <row r="5">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>641.8744311799228</v>
+        <v>777.9834118244169</v>
       </c>
       <c r="AB5" t="n">
-        <v>878.2409142417258</v>
+        <v>1064.471226263958</v>
       </c>
       <c r="AC5" t="n">
-        <v>794.4228340053593</v>
+        <v>962.8795864240742</v>
       </c>
       <c r="AD5" t="n">
-        <v>641874.4311799228</v>
+        <v>777983.4118244168</v>
       </c>
       <c r="AE5" t="n">
-        <v>878240.9142417258</v>
+        <v>1064471.226263958</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.037010696609608e-06</v>
+        <v>1.567228010993271e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.36979166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>794422.8340053593</v>
+        <v>962879.5864240743</v>
       </c>
     </row>
     <row r="6">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>614.7253541818309</v>
+        <v>750.9195861723456</v>
       </c>
       <c r="AB6" t="n">
-        <v>841.094349360191</v>
+        <v>1027.441306035072</v>
       </c>
       <c r="AC6" t="n">
-        <v>760.8214851405872</v>
+        <v>929.3837498100141</v>
       </c>
       <c r="AD6" t="n">
-        <v>614725.3541818309</v>
+        <v>750919.5861723456</v>
       </c>
       <c r="AE6" t="n">
-        <v>841094.349360191</v>
+        <v>1027441.306035072</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.051651696725793e-06</v>
+        <v>1.589354866160783e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.9140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>760821.4851405872</v>
+        <v>929383.7498100142</v>
       </c>
     </row>
     <row r="7">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>598.5469795645745</v>
+        <v>726.8904277524878</v>
       </c>
       <c r="AB7" t="n">
-        <v>818.9583834693459</v>
+        <v>994.5635513933709</v>
       </c>
       <c r="AC7" t="n">
-        <v>740.798144766341</v>
+        <v>899.6438019270983</v>
       </c>
       <c r="AD7" t="n">
-        <v>598546.9795645744</v>
+        <v>726890.4277524877</v>
       </c>
       <c r="AE7" t="n">
-        <v>818958.3834693459</v>
+        <v>994563.5513933708</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.061008533067651e-06</v>
+        <v>1.603495796487908e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.62760416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>740798.144766341</v>
+        <v>899643.8019270983</v>
       </c>
     </row>
     <row r="8">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>597.8115929531957</v>
+        <v>726.1550411411091</v>
       </c>
       <c r="AB8" t="n">
-        <v>817.9521950646899</v>
+        <v>993.557362988715</v>
       </c>
       <c r="AC8" t="n">
-        <v>739.8879855708311</v>
+        <v>898.7336427315885</v>
       </c>
       <c r="AD8" t="n">
-        <v>597811.5929531957</v>
+        <v>726155.0411411091</v>
       </c>
       <c r="AE8" t="n">
-        <v>817952.19506469</v>
+        <v>993557.3629887149</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.062116918639827e-06</v>
+        <v>1.605170892917842e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.6015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>739887.9855708311</v>
+        <v>898733.6427315885</v>
       </c>
     </row>
     <row r="9">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>599.8801176338934</v>
+        <v>728.2235658218067</v>
       </c>
       <c r="AB9" t="n">
-        <v>820.7824417896887</v>
+        <v>996.3876097137139</v>
       </c>
       <c r="AC9" t="n">
-        <v>742.4481175206724</v>
+        <v>901.2937746814296</v>
       </c>
       <c r="AD9" t="n">
-        <v>599880.1176338934</v>
+        <v>728223.5658218067</v>
       </c>
       <c r="AE9" t="n">
-        <v>820782.4417896888</v>
+        <v>996387.6097137139</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.062091142231172e-06</v>
+        <v>1.605131937186914e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.6015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>742448.1175206724</v>
+        <v>901293.7746814296</v>
       </c>
     </row>
   </sheetData>
@@ -11123,28 +11123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>584.1539932711297</v>
+        <v>720.1272618850987</v>
       </c>
       <c r="AB2" t="n">
-        <v>799.2652646489139</v>
+        <v>985.3098894837892</v>
       </c>
       <c r="AC2" t="n">
-        <v>722.984509566665</v>
+        <v>891.2732965225711</v>
       </c>
       <c r="AD2" t="n">
-        <v>584153.9932711297</v>
+        <v>720127.2618850988</v>
       </c>
       <c r="AE2" t="n">
-        <v>799265.2646489139</v>
+        <v>985309.8894837892</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.047256178782303e-06</v>
+        <v>1.655175813377441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.79166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>722984.509566665</v>
+        <v>891273.296522571</v>
       </c>
     </row>
     <row r="3">
@@ -11229,28 +11229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>511.4903576879742</v>
+        <v>632.346092536212</v>
       </c>
       <c r="AB3" t="n">
-        <v>699.8436727506852</v>
+        <v>865.2038209487674</v>
       </c>
       <c r="AC3" t="n">
-        <v>633.0515748601227</v>
+        <v>782.6299825986058</v>
       </c>
       <c r="AD3" t="n">
-        <v>511490.3576879742</v>
+        <v>632346.0925362121</v>
       </c>
       <c r="AE3" t="n">
-        <v>699843.6727506851</v>
+        <v>865203.8209487675</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.132046319379523e-06</v>
+        <v>1.789185612290802e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>633051.5748601228</v>
+        <v>782629.9825986058</v>
       </c>
     </row>
     <row r="4">
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>498.0024208250738</v>
+        <v>626.3315369473303</v>
       </c>
       <c r="AB4" t="n">
-        <v>681.3888824890865</v>
+        <v>856.9744406485936</v>
       </c>
       <c r="AC4" t="n">
-        <v>616.3580838796303</v>
+        <v>775.1860028042728</v>
       </c>
       <c r="AD4" t="n">
-        <v>498002.4208250738</v>
+        <v>626331.5369473302</v>
       </c>
       <c r="AE4" t="n">
-        <v>681388.8824890866</v>
+        <v>856974.4406485936</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.140329448625984e-06</v>
+        <v>1.802276998587289e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>616358.0838796303</v>
+        <v>775186.0028042728</v>
       </c>
     </row>
   </sheetData>
@@ -11632,28 +11632,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1346.824654467279</v>
+        <v>1558.508539069144</v>
       </c>
       <c r="AB2" t="n">
-        <v>1842.784909952395</v>
+        <v>2132.420139698553</v>
       </c>
       <c r="AC2" t="n">
-        <v>1666.912104511403</v>
+        <v>1928.904954436186</v>
       </c>
       <c r="AD2" t="n">
-        <v>1346824.654467279</v>
+        <v>1558508.539069144</v>
       </c>
       <c r="AE2" t="n">
-        <v>1842784.909952395</v>
+        <v>2132420.139698553</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.510036232475214e-07</v>
+        <v>9.490892563623043e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.86458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1666912.104511403</v>
+        <v>1928904.954436186</v>
       </c>
     </row>
     <row r="3">
@@ -11738,28 +11738,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>999.4405514054342</v>
+        <v>1168.668271399077</v>
       </c>
       <c r="AB3" t="n">
-        <v>1367.478654638172</v>
+        <v>1599.02348693357</v>
       </c>
       <c r="AC3" t="n">
-        <v>1236.96841110785</v>
+        <v>1446.414929584189</v>
       </c>
       <c r="AD3" t="n">
-        <v>999440.5514054343</v>
+        <v>1168668.271399077</v>
       </c>
       <c r="AE3" t="n">
-        <v>1367478.654638172</v>
+        <v>1599023.48693357</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.114991682253241e-07</v>
+        <v>1.183073510816338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.3984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1236968.41110785</v>
+        <v>1446414.929584189</v>
       </c>
     </row>
     <row r="4">
@@ -11844,28 +11844,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>900.4461293072026</v>
+        <v>1061.284917994426</v>
       </c>
       <c r="AB4" t="n">
-        <v>1232.030118997699</v>
+        <v>1452.096845386124</v>
       </c>
       <c r="AC4" t="n">
-        <v>1114.44689360569</v>
+        <v>1313.510760493195</v>
       </c>
       <c r="AD4" t="n">
-        <v>900446.1293072025</v>
+        <v>1061284.917994426</v>
       </c>
       <c r="AE4" t="n">
-        <v>1232030.118997699</v>
+        <v>1452096.845386124</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.730459911987712e-07</v>
+        <v>1.272801780155204e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.69010416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1114446.89360569</v>
+        <v>1313510.760493195</v>
       </c>
     </row>
     <row r="5">
@@ -11950,28 +11950,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>857.2814982067482</v>
+        <v>1009.56085289551</v>
       </c>
       <c r="AB5" t="n">
-        <v>1172.970366436931</v>
+        <v>1381.325697613085</v>
       </c>
       <c r="AC5" t="n">
-        <v>1061.023720938439</v>
+        <v>1249.493911735684</v>
       </c>
       <c r="AD5" t="n">
-        <v>857281.4982067482</v>
+        <v>1009560.85289551</v>
       </c>
       <c r="AE5" t="n">
-        <v>1172970.366436931</v>
+        <v>1381325.697613085</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.045612189810534e-07</v>
+        <v>1.31874739863082e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.44010416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1061023.720938439</v>
+        <v>1249493.911735684</v>
       </c>
     </row>
     <row r="6">
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>823.9934301764932</v>
+        <v>968.0545352679786</v>
       </c>
       <c r="AB6" t="n">
-        <v>1127.424163192021</v>
+        <v>1324.534922705597</v>
       </c>
       <c r="AC6" t="n">
-        <v>1019.824383406725</v>
+        <v>1198.123168679014</v>
       </c>
       <c r="AD6" t="n">
-        <v>823993.4301764932</v>
+        <v>968054.5352679787</v>
       </c>
       <c r="AE6" t="n">
-        <v>1127424.163192021</v>
+        <v>1324534.922705597</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.258345959730418e-07</v>
+        <v>1.349761563266222e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.65885416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1019824.383406725</v>
+        <v>1198123.168679014</v>
       </c>
     </row>
     <row r="7">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>806.4992908856273</v>
+        <v>950.3898037765208</v>
       </c>
       <c r="AB7" t="n">
-        <v>1103.487910027303</v>
+        <v>1300.365257766032</v>
       </c>
       <c r="AC7" t="n">
-        <v>998.1725726493053</v>
+        <v>1176.260222638943</v>
       </c>
       <c r="AD7" t="n">
-        <v>806499.2908856273</v>
+        <v>950389.8037765208</v>
       </c>
       <c r="AE7" t="n">
-        <v>1103487.910027303</v>
+        <v>1300365.257766032</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.398094577990501e-07</v>
+        <v>1.370135322711749e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.15104166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>998172.5726493052</v>
+        <v>1176260.222638943</v>
       </c>
     </row>
     <row r="8">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>784.5949109369064</v>
+        <v>928.5706751738203</v>
       </c>
       <c r="AB8" t="n">
-        <v>1073.517371028421</v>
+        <v>1270.5113634198</v>
       </c>
       <c r="AC8" t="n">
-        <v>971.0623798285611</v>
+        <v>1149.255542068912</v>
       </c>
       <c r="AD8" t="n">
-        <v>784594.9109369065</v>
+        <v>928570.6751738203</v>
       </c>
       <c r="AE8" t="n">
-        <v>1073517.371028421</v>
+        <v>1270511.3634198</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.497402243363675e-07</v>
+        <v>1.384613251084856e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>33</v>
+        <v>32.8125</v>
       </c>
       <c r="AH8" t="n">
-        <v>971062.3798285611</v>
+        <v>1149255.542068912</v>
       </c>
     </row>
     <row r="9">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>774.1485816519689</v>
+        <v>918.1243458888829</v>
       </c>
       <c r="AB9" t="n">
-        <v>1059.224242441247</v>
+        <v>1256.218234832626</v>
       </c>
       <c r="AC9" t="n">
-        <v>958.1333673732153</v>
+        <v>1136.326529613566</v>
       </c>
       <c r="AD9" t="n">
-        <v>774148.5816519689</v>
+        <v>918124.3458888829</v>
       </c>
       <c r="AE9" t="n">
-        <v>1059224.242441247</v>
+        <v>1256218.234832626</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.557704729325215e-07</v>
+        <v>1.393404667831898e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>33</v>
+        <v>32.60416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>958133.3673732153</v>
+        <v>1136326.529613566</v>
       </c>
     </row>
     <row r="10">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>763.0886770127124</v>
+        <v>906.8938490490343</v>
       </c>
       <c r="AB10" t="n">
-        <v>1044.091592985261</v>
+        <v>1240.852173601792</v>
       </c>
       <c r="AC10" t="n">
-        <v>944.4449567425008</v>
+        <v>1122.4269837002</v>
       </c>
       <c r="AD10" t="n">
-        <v>763088.6770127125</v>
+        <v>906893.8490490343</v>
       </c>
       <c r="AE10" t="n">
-        <v>1044091.592985261</v>
+        <v>1240852.173601792</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.622314535712582e-07</v>
+        <v>1.402824042918016e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>33</v>
+        <v>32.3828125</v>
       </c>
       <c r="AH10" t="n">
-        <v>944444.9567425009</v>
+        <v>1122426.9837002</v>
       </c>
     </row>
     <row r="11">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>752.9556871553066</v>
+        <v>888.4573582483314</v>
       </c>
       <c r="AB11" t="n">
-        <v>1030.227189226395</v>
+        <v>1215.6265535277</v>
       </c>
       <c r="AC11" t="n">
-        <v>931.9037522195689</v>
+        <v>1099.6088614016</v>
       </c>
       <c r="AD11" t="n">
-        <v>752955.6871553066</v>
+        <v>888457.3582483314</v>
       </c>
       <c r="AE11" t="n">
-        <v>1030227.189226395</v>
+        <v>1215626.5535277</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.680941952619639e-07</v>
+        <v>1.411371253644308e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>33</v>
+        <v>32.1875</v>
       </c>
       <c r="AH11" t="n">
-        <v>931903.7522195689</v>
+        <v>1099608.8614016</v>
       </c>
     </row>
     <row r="12">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>744.4195157084974</v>
+        <v>879.9211868015223</v>
       </c>
       <c r="AB12" t="n">
-        <v>1018.547622863565</v>
+        <v>1203.94698716487</v>
       </c>
       <c r="AC12" t="n">
-        <v>921.3388672780329</v>
+        <v>1089.043976460064</v>
       </c>
       <c r="AD12" t="n">
-        <v>744419.5157084975</v>
+        <v>879921.1868015223</v>
       </c>
       <c r="AE12" t="n">
-        <v>1018547.622863565</v>
+        <v>1203946.98716487</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.70247855474876e-07</v>
+        <v>1.41451104533968e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>33</v>
+        <v>32.109375</v>
       </c>
       <c r="AH12" t="n">
-        <v>921338.8672780329</v>
+        <v>1089043.976460064</v>
       </c>
     </row>
     <row r="13">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>726.075152180851</v>
+        <v>869.9655755631933</v>
       </c>
       <c r="AB13" t="n">
-        <v>993.4480553888377</v>
+        <v>1190.325280658019</v>
       </c>
       <c r="AC13" t="n">
-        <v>898.6347672956293</v>
+        <v>1076.722306504041</v>
       </c>
       <c r="AD13" t="n">
-        <v>726075.152180851</v>
+        <v>869965.5755631933</v>
       </c>
       <c r="AE13" t="n">
-        <v>993448.0553888377</v>
+        <v>1190325.280658019</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.749380488274404e-07</v>
+        <v>1.421348813920713e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>32</v>
+        <v>31.953125</v>
       </c>
       <c r="AH13" t="n">
-        <v>898634.7672956294</v>
+        <v>1076722.306504041</v>
       </c>
     </row>
     <row r="14">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>716.9771850689182</v>
+        <v>860.8676084512605</v>
       </c>
       <c r="AB14" t="n">
-        <v>980.9998154123098</v>
+        <v>1177.877040681491</v>
       </c>
       <c r="AC14" t="n">
-        <v>887.3745698712466</v>
+        <v>1065.462109079658</v>
       </c>
       <c r="AD14" t="n">
-        <v>716977.1850689182</v>
+        <v>860867.6084512605</v>
       </c>
       <c r="AE14" t="n">
-        <v>980999.8154123097</v>
+        <v>1177877.040681491</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.771156385982739e-07</v>
+        <v>1.424523492190479e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>32</v>
+        <v>31.88802083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>887374.5698712467</v>
+        <v>1065462.109079658</v>
       </c>
     </row>
     <row r="15">
@@ -13010,28 +13010,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>713.1407464759454</v>
+        <v>857.0311698582877</v>
       </c>
       <c r="AB15" t="n">
-        <v>975.7506308776791</v>
+        <v>1172.62785614686</v>
       </c>
       <c r="AC15" t="n">
-        <v>882.6263601413243</v>
+        <v>1060.713899349736</v>
       </c>
       <c r="AD15" t="n">
-        <v>713140.7464759455</v>
+        <v>857031.1698582878</v>
       </c>
       <c r="AE15" t="n">
-        <v>975750.6308776791</v>
+        <v>1172627.85614686</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.782163982626514e-07</v>
+        <v>1.426128274612558e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>32</v>
+        <v>31.84895833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>882626.3601413243</v>
+        <v>1060713.899349736</v>
       </c>
     </row>
     <row r="16">
@@ -13116,28 +13116,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>712.1560063102955</v>
+        <v>856.0464296926378</v>
       </c>
       <c r="AB16" t="n">
-        <v>974.4032659393669</v>
+        <v>1171.280491208548</v>
       </c>
       <c r="AC16" t="n">
-        <v>881.4075858216861</v>
+        <v>1059.495125030098</v>
       </c>
       <c r="AD16" t="n">
-        <v>712156.0063102955</v>
+        <v>856046.4296926379</v>
       </c>
       <c r="AE16" t="n">
-        <v>974403.2659393669</v>
+        <v>1171280.491208548</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.784796233997851e-07</v>
+        <v>1.426512026930881e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>32</v>
+        <v>31.84895833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>881407.5858216861</v>
+        <v>1059495.125030098</v>
       </c>
     </row>
     <row r="17">
@@ -13222,28 +13222,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>713.1992929924859</v>
+        <v>857.0897163748283</v>
       </c>
       <c r="AB17" t="n">
-        <v>975.8307368044997</v>
+        <v>1172.707962073681</v>
       </c>
       <c r="AC17" t="n">
-        <v>882.6988208709186</v>
+        <v>1060.78636007933</v>
       </c>
       <c r="AD17" t="n">
-        <v>713199.2929924859</v>
+        <v>857089.7163748282</v>
       </c>
       <c r="AE17" t="n">
-        <v>975830.7368044996</v>
+        <v>1172707.962073681</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.785274825156275e-07</v>
+        <v>1.426581800079667e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>32</v>
+        <v>31.8359375</v>
       </c>
       <c r="AH17" t="n">
-        <v>882698.8208709186</v>
+        <v>1060786.36007933</v>
       </c>
     </row>
   </sheetData>
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>518.8931972736054</v>
+        <v>652.5590312232506</v>
       </c>
       <c r="AB2" t="n">
-        <v>709.9725644619787</v>
+        <v>892.860055392293</v>
       </c>
       <c r="AC2" t="n">
-        <v>642.2137793624793</v>
+        <v>807.6467448426101</v>
       </c>
       <c r="AD2" t="n">
-        <v>518893.1972736054</v>
+        <v>652559.0312232506</v>
       </c>
       <c r="AE2" t="n">
-        <v>709972.5644619786</v>
+        <v>892860.055392293</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.104246881449031e-06</v>
+        <v>1.769262889109708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.76302083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>642213.7793624792</v>
+        <v>807646.7448426101</v>
       </c>
     </row>
     <row r="3">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.0618775289988</v>
+        <v>596.9424178796791</v>
       </c>
       <c r="AB3" t="n">
-        <v>654.1053514367137</v>
+        <v>816.7629513838064</v>
       </c>
       <c r="AC3" t="n">
-        <v>591.6784547382196</v>
+        <v>738.8122416377371</v>
       </c>
       <c r="AD3" t="n">
-        <v>478061.8775289988</v>
+        <v>596942.417879679</v>
       </c>
       <c r="AE3" t="n">
-        <v>654105.3514367137</v>
+        <v>816762.9513838063</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.158687435447698e-06</v>
+        <v>1.856489444575295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>591678.4547382195</v>
+        <v>738812.2416377371</v>
       </c>
     </row>
     <row r="4">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>480.8060786243963</v>
+        <v>599.6866189750765</v>
       </c>
       <c r="AB4" t="n">
-        <v>657.8600884410446</v>
+        <v>820.5176883881371</v>
       </c>
       <c r="AC4" t="n">
-        <v>595.0748449126636</v>
+        <v>742.2086318121811</v>
       </c>
       <c r="AD4" t="n">
-        <v>480806.0786243963</v>
+        <v>599686.6189750765</v>
       </c>
       <c r="AE4" t="n">
-        <v>657860.0884410446</v>
+        <v>820517.6883881371</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158887900401928e-06</v>
+        <v>1.856810636520723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.17447916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>595074.8449126636</v>
+        <v>742208.6318121811</v>
       </c>
     </row>
   </sheetData>
@@ -14028,28 +14028,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1062.908588050784</v>
+        <v>1252.016460392446</v>
       </c>
       <c r="AB2" t="n">
-        <v>1454.318422388501</v>
+        <v>1713.064156176881</v>
       </c>
       <c r="AC2" t="n">
-        <v>1315.520313304467</v>
+        <v>1549.571717412003</v>
       </c>
       <c r="AD2" t="n">
-        <v>1062908.588050784</v>
+        <v>1252016.460392446</v>
       </c>
       <c r="AE2" t="n">
-        <v>1454318.422388501</v>
+        <v>1713064.156176881</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.542863937705998e-07</v>
+        <v>1.119997020477597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.94270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1315520.313304467</v>
+        <v>1549571.717412003</v>
       </c>
     </row>
     <row r="3">
@@ -14134,28 +14134,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>841.3458473495051</v>
+        <v>989.4584267989969</v>
       </c>
       <c r="AB3" t="n">
-        <v>1151.166505902753</v>
+        <v>1353.820671371387</v>
       </c>
       <c r="AC3" t="n">
-        <v>1041.300790251732</v>
+        <v>1224.613926594947</v>
       </c>
       <c r="AD3" t="n">
-        <v>841345.8473495051</v>
+        <v>989458.426798997</v>
       </c>
       <c r="AE3" t="n">
-        <v>1151166.505902753</v>
+        <v>1353820.671371387</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.959187840122313e-07</v>
+        <v>1.330298911621071e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.15885416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1041300.790251732</v>
+        <v>1224613.926594947</v>
       </c>
     </row>
     <row r="4">
@@ -14240,28 +14240,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>773.9275317107031</v>
+        <v>913.8068983382219</v>
       </c>
       <c r="AB4" t="n">
-        <v>1058.921792159573</v>
+        <v>1250.310912621469</v>
       </c>
       <c r="AC4" t="n">
-        <v>957.8597825219317</v>
+        <v>1130.982993943262</v>
       </c>
       <c r="AD4" t="n">
-        <v>773927.531710703</v>
+        <v>913806.8983382219</v>
       </c>
       <c r="AE4" t="n">
-        <v>1058921.792159572</v>
+        <v>1250310.912621469</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.477154881195696e-07</v>
+        <v>1.40720889534858e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.1796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>957859.7825219317</v>
+        <v>1130982.993943262</v>
       </c>
     </row>
     <row r="5">
@@ -14346,28 +14346,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>738.3170674140033</v>
+        <v>878.1110931869506</v>
       </c>
       <c r="AB5" t="n">
-        <v>1010.19798388602</v>
+        <v>1201.470337225719</v>
       </c>
       <c r="AC5" t="n">
-        <v>913.786106125713</v>
+        <v>1086.803694515105</v>
       </c>
       <c r="AD5" t="n">
-        <v>738317.0674140033</v>
+        <v>878111.0931869505</v>
       </c>
       <c r="AE5" t="n">
-        <v>1010197.98388602</v>
+        <v>1201470.337225719</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.743850687166235e-07</v>
+        <v>1.446809040668412e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.2421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>913786.106125713</v>
+        <v>1086803.694515105</v>
       </c>
     </row>
     <row r="6">
@@ -14452,28 +14452,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>709.7161501791032</v>
+        <v>849.5954272980711</v>
       </c>
       <c r="AB6" t="n">
-        <v>971.0649471418141</v>
+        <v>1162.453945134162</v>
       </c>
       <c r="AC6" t="n">
-        <v>878.3878714848117</v>
+        <v>1051.510972124916</v>
       </c>
       <c r="AD6" t="n">
-        <v>709716.1501791032</v>
+        <v>849595.4272980711</v>
       </c>
       <c r="AE6" t="n">
-        <v>971064.947141814</v>
+        <v>1162453.945134162</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.925960136765522e-07</v>
+        <v>1.473849438405461e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.63020833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>878387.8714848118</v>
+        <v>1051510.972124916</v>
       </c>
     </row>
     <row r="7">
@@ -14558,28 +14558,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>694.7868880260716</v>
+        <v>826.4330418316175</v>
       </c>
       <c r="AB7" t="n">
-        <v>950.6380720314736</v>
+        <v>1130.762147486632</v>
       </c>
       <c r="AC7" t="n">
-        <v>859.910508665703</v>
+        <v>1022.843795165149</v>
       </c>
       <c r="AD7" t="n">
-        <v>694786.8880260716</v>
+        <v>826433.0418316175</v>
       </c>
       <c r="AE7" t="n">
-        <v>950638.0720314736</v>
+        <v>1130762.147486632</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.003243943243287e-06</v>
+        <v>1.489659944186141e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.29166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>859910.508665703</v>
+        <v>1022843.795165149</v>
       </c>
     </row>
     <row r="8">
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>680.9181532968613</v>
+        <v>812.564307102407</v>
       </c>
       <c r="AB8" t="n">
-        <v>931.6622573295738</v>
+        <v>1111.786332784732</v>
       </c>
       <c r="AC8" t="n">
-        <v>842.7457190862292</v>
+        <v>1005.679005585675</v>
       </c>
       <c r="AD8" t="n">
-        <v>680918.1532968613</v>
+        <v>812564.3071024071</v>
       </c>
       <c r="AE8" t="n">
-        <v>931662.2573295737</v>
+        <v>1111786.332784732</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.012001118961722e-06</v>
+        <v>1.502662976977727e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>33</v>
+        <v>32.00520833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>842745.7190862292</v>
+        <v>1005679.005585675</v>
       </c>
     </row>
     <row r="9">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>658.7947103104908</v>
+        <v>798.588646574887</v>
       </c>
       <c r="AB9" t="n">
-        <v>901.391986618201</v>
+        <v>1092.664217488351</v>
       </c>
       <c r="AC9" t="n">
-        <v>815.3644005269582</v>
+        <v>988.3818781351233</v>
       </c>
       <c r="AD9" t="n">
-        <v>658794.7103104908</v>
+        <v>798588.646574887</v>
       </c>
       <c r="AE9" t="n">
-        <v>901391.986618201</v>
+        <v>1092664.217488351</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.017996798928038e-06</v>
+        <v>1.511565621587876e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.82291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>815364.4005269582</v>
+        <v>988381.8781351233</v>
       </c>
     </row>
     <row r="10">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>648.718327877884</v>
+        <v>788.5122641422801</v>
       </c>
       <c r="AB10" t="n">
-        <v>887.6050356352893</v>
+        <v>1078.87726650544</v>
       </c>
       <c r="AC10" t="n">
-        <v>802.8932567957484</v>
+        <v>975.9107344039136</v>
       </c>
       <c r="AD10" t="n">
-        <v>648718.327877884</v>
+        <v>788512.2641422801</v>
       </c>
       <c r="AE10" t="n">
-        <v>887605.0356352893</v>
+        <v>1078877.26650544</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.021031956421359e-06</v>
+        <v>1.516072354544051e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>31.73177083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>802893.2567957484</v>
+        <v>975910.7344039136</v>
       </c>
     </row>
     <row r="11">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>647.7516645223279</v>
+        <v>779.4830696738943</v>
       </c>
       <c r="AB11" t="n">
-        <v>886.2824041860399</v>
+        <v>1066.523124293848</v>
       </c>
       <c r="AC11" t="n">
-        <v>801.6968554356905</v>
+        <v>964.7356541858485</v>
       </c>
       <c r="AD11" t="n">
-        <v>647751.6645223279</v>
+        <v>779483.0696738943</v>
       </c>
       <c r="AE11" t="n">
-        <v>886282.4041860399</v>
+        <v>1066523.124293848</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.023121736990531e-06</v>
+        <v>1.51917535100568e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>32</v>
+        <v>31.66666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>801696.8554356905</v>
+        <v>964735.6541858485</v>
       </c>
     </row>
     <row r="12">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>649.4270909958708</v>
+        <v>781.1584961474373</v>
       </c>
       <c r="AB12" t="n">
-        <v>888.5747966017409</v>
+        <v>1068.815516709548</v>
       </c>
       <c r="AC12" t="n">
-        <v>803.7704651366298</v>
+        <v>966.8092638867877</v>
       </c>
       <c r="AD12" t="n">
-        <v>649427.0909958708</v>
+        <v>781158.4961474373</v>
       </c>
       <c r="AE12" t="n">
-        <v>888574.7966017409</v>
+        <v>1068815.516709548</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.022922710269658e-06</v>
+        <v>1.518879827533143e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>31.66666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>803770.4651366298</v>
+        <v>966809.2638867877</v>
       </c>
     </row>
   </sheetData>
@@ -15385,28 +15385,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1204.905366564578</v>
+        <v>1396.98041516186</v>
       </c>
       <c r="AB2" t="n">
-        <v>1648.60467920682</v>
+        <v>1911.410234450717</v>
       </c>
       <c r="AC2" t="n">
-        <v>1491.26416245452</v>
+        <v>1728.987924355853</v>
       </c>
       <c r="AD2" t="n">
-        <v>1204905.366564578</v>
+        <v>1396980.41516186</v>
       </c>
       <c r="AE2" t="n">
-        <v>1648604.67920682</v>
+        <v>1911410.234450717</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.999272039770926e-07</v>
+        <v>1.029202693035042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.3515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1491264.16245452</v>
+        <v>1728987.924355853</v>
       </c>
     </row>
     <row r="3">
@@ -15491,28 +15491,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>919.4605157471022</v>
+        <v>1078.101539857797</v>
       </c>
       <c r="AB3" t="n">
-        <v>1258.046441380296</v>
+        <v>1475.106089316586</v>
       </c>
       <c r="AC3" t="n">
-        <v>1137.980254694229</v>
+        <v>1334.324034476609</v>
       </c>
       <c r="AD3" t="n">
-        <v>919460.5157471022</v>
+        <v>1078101.539857797</v>
       </c>
       <c r="AE3" t="n">
-        <v>1258046.441380296</v>
+        <v>1475106.089316586</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.519835492584573e-07</v>
+        <v>1.252792802359852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.25260416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1137980.254694229</v>
+        <v>1334324.034476609</v>
       </c>
     </row>
     <row r="4">
@@ -15597,28 +15597,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>833.2024479555555</v>
+        <v>983.5702172906244</v>
       </c>
       <c r="AB4" t="n">
-        <v>1140.024347590525</v>
+        <v>1345.764163352562</v>
       </c>
       <c r="AC4" t="n">
-        <v>1031.222023890705</v>
+        <v>1217.326320394059</v>
       </c>
       <c r="AD4" t="n">
-        <v>833202.4479555555</v>
+        <v>983570.2172906244</v>
       </c>
       <c r="AE4" t="n">
-        <v>1140024.347590525</v>
+        <v>1345764.163352562</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.084866926316862e-07</v>
+        <v>1.335877424580901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.93489583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1031222.023890706</v>
+        <v>1217326.320394059</v>
       </c>
     </row>
     <row r="5">
@@ -15703,28 +15703,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>793.2575854369751</v>
+        <v>943.5400139174726</v>
       </c>
       <c r="AB5" t="n">
-        <v>1085.370024449642</v>
+        <v>1290.993073089481</v>
       </c>
       <c r="AC5" t="n">
-        <v>981.7838326425643</v>
+        <v>1167.782506113979</v>
       </c>
       <c r="AD5" t="n">
-        <v>793257.5854369751</v>
+        <v>943540.0139174726</v>
       </c>
       <c r="AE5" t="n">
-        <v>1085370.024449642</v>
+        <v>1290993.073089481</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.38371444044792e-07</v>
+        <v>1.379821232537333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>981783.8326425643</v>
+        <v>1167782.506113979</v>
       </c>
     </row>
     <row r="6">
@@ -15809,28 +15809,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>772.0849159337469</v>
+        <v>914.0089278011486</v>
       </c>
       <c r="AB6" t="n">
-        <v>1056.40064396307</v>
+        <v>1250.587338245556</v>
       </c>
       <c r="AC6" t="n">
-        <v>955.5792491708499</v>
+        <v>1131.233037893753</v>
       </c>
       <c r="AD6" t="n">
-        <v>772084.9159337468</v>
+        <v>914008.9278011486</v>
       </c>
       <c r="AE6" t="n">
-        <v>1056400.64396307</v>
+        <v>1250587.338245556</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.575795876936722e-07</v>
+        <v>1.408065702904109e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.15104166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>955579.2491708499</v>
+        <v>1131233.037893753</v>
       </c>
     </row>
     <row r="7">
@@ -15915,28 +15915,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>746.9823462369222</v>
+        <v>888.9916094503444</v>
       </c>
       <c r="AB7" t="n">
-        <v>1022.054200656659</v>
+        <v>1216.357539591794</v>
       </c>
       <c r="AC7" t="n">
-        <v>924.5107822080669</v>
+        <v>1100.270083181682</v>
       </c>
       <c r="AD7" t="n">
-        <v>746982.3462369222</v>
+        <v>888991.6094503445</v>
       </c>
       <c r="AE7" t="n">
-        <v>1022054.200656659</v>
+        <v>1216357.539591794</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.707912804064807e-07</v>
+        <v>1.427492737090394e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.6953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>924510.7822080669</v>
+        <v>1100270.083181682</v>
       </c>
     </row>
     <row r="8">
@@ -16021,28 +16021,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>735.2085964750023</v>
+        <v>877.0472674878323</v>
       </c>
       <c r="AB8" t="n">
-        <v>1005.94483681122</v>
+        <v>1200.014763971508</v>
       </c>
       <c r="AC8" t="n">
-        <v>909.938873438402</v>
+        <v>1085.487039129366</v>
       </c>
       <c r="AD8" t="n">
-        <v>735208.5964750024</v>
+        <v>877047.2674878323</v>
       </c>
       <c r="AE8" t="n">
-        <v>1005944.83681122</v>
+        <v>1200014.763971508</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.783234078017903e-07</v>
+        <v>1.438568297170767e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>33</v>
+        <v>32.44791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>909938.873438402</v>
+        <v>1085487.039129366</v>
       </c>
     </row>
     <row r="9">
@@ -16127,28 +16127,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>722.9491284946852</v>
+        <v>856.5999750950119</v>
       </c>
       <c r="AB9" t="n">
-        <v>989.1708918709941</v>
+        <v>1172.037876448776</v>
       </c>
       <c r="AC9" t="n">
-        <v>894.7658102608917</v>
+        <v>1060.180226485995</v>
       </c>
       <c r="AD9" t="n">
-        <v>722949.1284946852</v>
+        <v>856599.9750950119</v>
       </c>
       <c r="AE9" t="n">
-        <v>989170.8918709941</v>
+        <v>1172037.876448776</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.861724208156729e-07</v>
+        <v>1.450109819325719e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>33</v>
+        <v>32.1875</v>
       </c>
       <c r="AH9" t="n">
-        <v>894765.8102608917</v>
+        <v>1060180.226485995</v>
       </c>
     </row>
     <row r="10">
@@ -16233,28 +16233,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>710.9679583025398</v>
+        <v>844.6188049028666</v>
       </c>
       <c r="AB10" t="n">
-        <v>972.7777262421768</v>
+        <v>1155.644710819958</v>
       </c>
       <c r="AC10" t="n">
-        <v>879.9371853517363</v>
+        <v>1045.351601576839</v>
       </c>
       <c r="AD10" t="n">
-        <v>710967.9583025399</v>
+        <v>844618.8049028666</v>
       </c>
       <c r="AE10" t="n">
-        <v>972777.7262421767</v>
+        <v>1155644.710819958</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.90706322742947e-07</v>
+        <v>1.456776661315846e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>33</v>
+        <v>32.03125</v>
       </c>
       <c r="AH10" t="n">
-        <v>879937.1853517363</v>
+        <v>1045351.601576839</v>
       </c>
     </row>
     <row r="11">
@@ -16339,28 +16339,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>691.4136099110265</v>
+        <v>833.337532269877</v>
       </c>
       <c r="AB11" t="n">
-        <v>946.0226040959415</v>
+        <v>1140.209175908879</v>
       </c>
       <c r="AC11" t="n">
-        <v>855.7355345120883</v>
+        <v>1031.389212453764</v>
       </c>
       <c r="AD11" t="n">
-        <v>691413.6099110264</v>
+        <v>833337.532269877</v>
       </c>
       <c r="AE11" t="n">
-        <v>946022.6040959414</v>
+        <v>1140209.175908879</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.965321429613253e-07</v>
+        <v>1.465343194840795e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>32</v>
+        <v>31.84895833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>855735.5345120883</v>
+        <v>1031389.212453764</v>
       </c>
     </row>
     <row r="12">
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>683.4524471309022</v>
+        <v>825.3763694897528</v>
       </c>
       <c r="AB12" t="n">
-        <v>935.1297899584616</v>
+        <v>1129.316361771399</v>
       </c>
       <c r="AC12" t="n">
-        <v>845.8823152677286</v>
+        <v>1021.535993209405</v>
       </c>
       <c r="AD12" t="n">
-        <v>683452.4471309022</v>
+        <v>825376.3694897528</v>
       </c>
       <c r="AE12" t="n">
-        <v>935129.7899584617</v>
+        <v>1129316.361771399</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.985065841232029e-07</v>
+        <v>1.468246496997786e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>31.78385416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>845882.3152677286</v>
+        <v>1021535.993209405</v>
       </c>
     </row>
     <row r="13">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>679.6413919252609</v>
+        <v>821.5653142841117</v>
       </c>
       <c r="AB13" t="n">
-        <v>929.9153360942137</v>
+        <v>1124.101907907151</v>
       </c>
       <c r="AC13" t="n">
-        <v>841.1655215617527</v>
+        <v>1016.819199503429</v>
       </c>
       <c r="AD13" t="n">
-        <v>679641.3919252609</v>
+        <v>821565.3142841116</v>
       </c>
       <c r="AE13" t="n">
-        <v>929915.3360942136</v>
+        <v>1124101.907907151</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.00026164293376e-06</v>
+        <v>1.470827210026222e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>32</v>
+        <v>31.73177083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>841165.5215617527</v>
+        <v>1016819.199503429</v>
       </c>
     </row>
     <row r="14">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>681.717321252047</v>
+        <v>823.6412436108977</v>
       </c>
       <c r="AB14" t="n">
-        <v>932.7557141826607</v>
+        <v>1126.942285995598</v>
       </c>
       <c r="AC14" t="n">
-        <v>843.7348179519338</v>
+        <v>1019.38849589361</v>
       </c>
       <c r="AD14" t="n">
-        <v>681717.321252047</v>
+        <v>823641.2436108977</v>
       </c>
       <c r="AE14" t="n">
-        <v>932755.7141826607</v>
+        <v>1126942.285995598</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.000017884765627e-06</v>
+        <v>1.470468777661161e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>32</v>
+        <v>31.74479166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>843734.8179519338</v>
+        <v>1019388.49589361</v>
       </c>
     </row>
   </sheetData>
@@ -16954,28 +16954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1507.026168635717</v>
+        <v>1730.072703197704</v>
       </c>
       <c r="AB2" t="n">
-        <v>2061.979689229651</v>
+        <v>2367.161797935985</v>
       </c>
       <c r="AC2" t="n">
-        <v>1865.187241696243</v>
+        <v>2141.243198273425</v>
       </c>
       <c r="AD2" t="n">
-        <v>1507026.168635717</v>
+        <v>1730072.703197704</v>
       </c>
       <c r="AE2" t="n">
-        <v>2061979.689229651</v>
+        <v>2367161.797935985</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.063662255773151e-07</v>
+        <v>8.772739841357556e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.52083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1865187.241696243</v>
+        <v>2141243.198273425</v>
       </c>
     </row>
     <row r="3">
@@ -17060,28 +17060,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1080.958419646374</v>
+        <v>1252.598323812957</v>
       </c>
       <c r="AB3" t="n">
-        <v>1479.014998279957</v>
+        <v>1713.860287378828</v>
       </c>
       <c r="AC3" t="n">
-        <v>1337.859882654705</v>
+        <v>1550.291866969413</v>
       </c>
       <c r="AD3" t="n">
-        <v>1080958.419646374</v>
+        <v>1252598.323812957</v>
       </c>
       <c r="AE3" t="n">
-        <v>1479014.998279957</v>
+        <v>1713860.287378828</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.742862842435148e-07</v>
+        <v>1.120216108331662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.5703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1337859.882654705</v>
+        <v>1550291.866969413</v>
       </c>
     </row>
     <row r="4">
@@ -17166,28 +17166,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>969.0774101383086</v>
+        <v>1131.879386041399</v>
       </c>
       <c r="AB4" t="n">
-        <v>1325.934465229237</v>
+        <v>1548.68731097612</v>
       </c>
       <c r="AC4" t="n">
-        <v>1199.389140828468</v>
+        <v>1400.882767612851</v>
       </c>
       <c r="AD4" t="n">
-        <v>969077.4101383085</v>
+        <v>1131879.386041399</v>
       </c>
       <c r="AE4" t="n">
-        <v>1325934.465229237</v>
+        <v>1548687.31097612</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.39412068520948e-07</v>
+        <v>1.214438302499277e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.49739583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1199389.140828468</v>
+        <v>1400882.767612851</v>
       </c>
     </row>
     <row r="5">
@@ -17272,28 +17272,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>920.4044956778486</v>
+        <v>1074.709817227182</v>
       </c>
       <c r="AB5" t="n">
-        <v>1259.338036366998</v>
+        <v>1470.465384781135</v>
       </c>
       <c r="AC5" t="n">
-        <v>1139.148581668166</v>
+        <v>1330.126232268753</v>
       </c>
       <c r="AD5" t="n">
-        <v>920404.4956778486</v>
+        <v>1074709.817227182</v>
       </c>
       <c r="AE5" t="n">
-        <v>1259338.036366998</v>
+        <v>1470465.384781135</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.727043317986099e-07</v>
+        <v>1.262604633694065e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.10416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1139148.581668166</v>
+        <v>1330126.232268753</v>
       </c>
     </row>
     <row r="6">
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>883.4922608375165</v>
+        <v>1029.300928033092</v>
       </c>
       <c r="AB6" t="n">
-        <v>1208.833088205585</v>
+        <v>1408.334939286976</v>
       </c>
       <c r="AC6" t="n">
-        <v>1093.463754875139</v>
+        <v>1273.925429291928</v>
       </c>
       <c r="AD6" t="n">
-        <v>883492.2608375165</v>
+        <v>1029300.928033092</v>
       </c>
       <c r="AE6" t="n">
-        <v>1208833.088205585</v>
+        <v>1408334.939286976</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.964441859662146e-07</v>
+        <v>1.296950802016003e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.1796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1093463.754875139</v>
+        <v>1273925.429291928</v>
       </c>
     </row>
     <row r="7">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>857.5107995417151</v>
+        <v>1003.404718083311</v>
       </c>
       <c r="AB7" t="n">
-        <v>1173.284106639494</v>
+        <v>1372.902602373534</v>
       </c>
       <c r="AC7" t="n">
-        <v>1061.307518216406</v>
+        <v>1241.874704883908</v>
       </c>
       <c r="AD7" t="n">
-        <v>857510.7995417151</v>
+        <v>1003404.718083311</v>
       </c>
       <c r="AE7" t="n">
-        <v>1173284.106639494</v>
+        <v>1372902.602373534</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.105610467199935e-07</v>
+        <v>1.317374688034994e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.64583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1061307.518216406</v>
+        <v>1241874.704883908</v>
       </c>
     </row>
     <row r="8">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>843.1751326523132</v>
+        <v>988.8984589933171</v>
       </c>
       <c r="AB8" t="n">
-        <v>1153.669414756427</v>
+        <v>1353.05449871562</v>
       </c>
       <c r="AC8" t="n">
-        <v>1043.564824997266</v>
+        <v>1223.920876382117</v>
       </c>
       <c r="AD8" t="n">
-        <v>843175.1326523132</v>
+        <v>988898.4589933171</v>
       </c>
       <c r="AE8" t="n">
-        <v>1153669.414756427</v>
+        <v>1353054.49871562</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.210781079815589e-07</v>
+        <v>1.332590483119143e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.25520833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1043564.824997266</v>
+        <v>1223920.876382117</v>
       </c>
     </row>
     <row r="9">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>823.906808293917</v>
+        <v>969.7153859809416</v>
       </c>
       <c r="AB9" t="n">
-        <v>1127.305643310792</v>
+        <v>1326.807371922635</v>
       </c>
       <c r="AC9" t="n">
-        <v>1019.717174896617</v>
+        <v>1200.17873853218</v>
       </c>
       <c r="AD9" t="n">
-        <v>823906.808293917</v>
+        <v>969715.3859809416</v>
       </c>
       <c r="AE9" t="n">
-        <v>1127305.643310793</v>
+        <v>1326807.371922635</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.287482689911121e-07</v>
+        <v>1.343687461189462e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>33</v>
+        <v>32.98177083333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1019717.174896617</v>
+        <v>1200178.73853218</v>
       </c>
     </row>
     <row r="10">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>813.6154440125597</v>
+        <v>959.424021699584</v>
       </c>
       <c r="AB10" t="n">
-        <v>1113.22454467809</v>
+        <v>1312.726273289933</v>
       </c>
       <c r="AC10" t="n">
-        <v>1006.979956554474</v>
+        <v>1187.441520190037</v>
       </c>
       <c r="AD10" t="n">
-        <v>813615.4440125597</v>
+        <v>959424.0216995841</v>
       </c>
       <c r="AE10" t="n">
-        <v>1113224.54467809</v>
+        <v>1312726.273289933</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.347008786089555e-07</v>
+        <v>1.35229953312747e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>33</v>
+        <v>32.7734375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1006979.956554474</v>
+        <v>1187441.520190037</v>
       </c>
     </row>
     <row r="11">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>802.5848104819532</v>
+        <v>948.3933881689776</v>
       </c>
       <c r="AB11" t="n">
-        <v>1098.131945244309</v>
+        <v>1297.633673856151</v>
       </c>
       <c r="AC11" t="n">
-        <v>993.3277736280561</v>
+        <v>1173.789337263619</v>
       </c>
       <c r="AD11" t="n">
-        <v>802584.8104819532</v>
+        <v>948393.3881689776</v>
       </c>
       <c r="AE11" t="n">
-        <v>1098131.945244309</v>
+        <v>1297633.673856151</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.422533991122273e-07</v>
+        <v>1.363226312147631e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>33</v>
+        <v>32.51302083333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>993327.773628056</v>
+        <v>1173789.337263619</v>
       </c>
     </row>
     <row r="12">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>794.94308766955</v>
+        <v>940.5810731559823</v>
       </c>
       <c r="AB12" t="n">
-        <v>1087.676202963361</v>
+        <v>1286.944519800357</v>
       </c>
       <c r="AC12" t="n">
-        <v>983.869912715676</v>
+        <v>1164.120341068588</v>
       </c>
       <c r="AD12" t="n">
-        <v>794943.08766955</v>
+        <v>940581.0731559823</v>
       </c>
       <c r="AE12" t="n">
-        <v>1087676.202963362</v>
+        <v>1286944.519800357</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.458767267056971e-07</v>
+        <v>1.368468442892505e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>33</v>
+        <v>32.3828125</v>
       </c>
       <c r="AH12" t="n">
-        <v>983869.912715676</v>
+        <v>1164120.341068588</v>
       </c>
     </row>
     <row r="13">
@@ -18120,28 +18120,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>786.077667556957</v>
+        <v>923.3043395442033</v>
       </c>
       <c r="AB13" t="n">
-        <v>1075.54614405058</v>
+        <v>1263.305730677027</v>
       </c>
       <c r="AC13" t="n">
-        <v>972.8975296008857</v>
+        <v>1142.73760480194</v>
       </c>
       <c r="AD13" t="n">
-        <v>786077.667556957</v>
+        <v>923304.3395442034</v>
       </c>
       <c r="AE13" t="n">
-        <v>1075546.14405058</v>
+        <v>1263305.730677027</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.481824806288143e-07</v>
+        <v>1.371804344275607e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>33</v>
+        <v>32.3046875</v>
       </c>
       <c r="AH13" t="n">
-        <v>972897.5296008857</v>
+        <v>1142737.60480194</v>
       </c>
     </row>
     <row r="14">
@@ -18226,28 +18226,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>777.4047563521513</v>
+        <v>914.6314283393978</v>
       </c>
       <c r="AB14" t="n">
-        <v>1063.679484318326</v>
+        <v>1251.439070944774</v>
       </c>
       <c r="AC14" t="n">
-        <v>962.163407218517</v>
+        <v>1132.003482419571</v>
       </c>
       <c r="AD14" t="n">
-        <v>777404.7563521513</v>
+        <v>914631.4283393978</v>
       </c>
       <c r="AE14" t="n">
-        <v>1063679.484318326</v>
+        <v>1251439.070944774</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.524881231587169e-07</v>
+        <v>1.3780336295114e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>33</v>
+        <v>32.16145833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>962163.407218517</v>
+        <v>1132003.482419571</v>
       </c>
     </row>
     <row r="15">
@@ -18332,28 +18332,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>770.2185577581906</v>
+        <v>907.4452297454369</v>
       </c>
       <c r="AB15" t="n">
-        <v>1053.847010369362</v>
+        <v>1241.60659699581</v>
       </c>
       <c r="AC15" t="n">
-        <v>953.2693307832784</v>
+        <v>1123.109405984333</v>
       </c>
       <c r="AD15" t="n">
-        <v>770218.5577581907</v>
+        <v>907445.2297454369</v>
       </c>
       <c r="AE15" t="n">
-        <v>1053847.010369362</v>
+        <v>1241606.59699581</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.553114953094727e-07</v>
+        <v>1.382118406715198e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>33</v>
+        <v>32.0703125</v>
       </c>
       <c r="AH15" t="n">
-        <v>953269.3307832784</v>
+        <v>1123109.405984333</v>
       </c>
     </row>
     <row r="16">
@@ -18438,28 +18438,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>763.6528324676844</v>
+        <v>900.8795044549307</v>
       </c>
       <c r="AB16" t="n">
-        <v>1044.863495367535</v>
+        <v>1232.623081993983</v>
       </c>
       <c r="AC16" t="n">
-        <v>945.1431898447831</v>
+        <v>1114.983265045837</v>
       </c>
       <c r="AD16" t="n">
-        <v>763652.8324676844</v>
+        <v>900879.5044549308</v>
       </c>
       <c r="AE16" t="n">
-        <v>1044863.495367535</v>
+        <v>1232623.081993983</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.568408218911319e-07</v>
+        <v>1.384330994367255e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>33</v>
+        <v>32.01822916666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>945143.1898447832</v>
+        <v>1114983.265045837</v>
       </c>
     </row>
     <row r="17">
@@ -18544,28 +18544,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>746.8721511331445</v>
+        <v>892.5953879655973</v>
       </c>
       <c r="AB17" t="n">
-        <v>1021.903426854206</v>
+        <v>1221.288388343851</v>
       </c>
       <c r="AC17" t="n">
-        <v>924.3743980457073</v>
+        <v>1104.730338649331</v>
       </c>
       <c r="AD17" t="n">
-        <v>746872.1511331445</v>
+        <v>892595.3879655973</v>
       </c>
       <c r="AE17" t="n">
-        <v>1021903.426854206</v>
+        <v>1221288.388343851</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.594994973330939e-07</v>
+        <v>1.388177492900832e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>32</v>
+        <v>31.92708333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>924374.3980457073</v>
+        <v>1104730.338649331</v>
       </c>
     </row>
     <row r="18">
@@ -18650,28 +18650,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>744.1383003798571</v>
+        <v>889.8615372123099</v>
       </c>
       <c r="AB18" t="n">
-        <v>1018.162851644575</v>
+        <v>1217.54781313422</v>
       </c>
       <c r="AC18" t="n">
-        <v>920.9908180841531</v>
+        <v>1101.346758687778</v>
       </c>
       <c r="AD18" t="n">
-        <v>744138.3003798571</v>
+        <v>889861.5372123099</v>
       </c>
       <c r="AE18" t="n">
-        <v>1018162.851644575</v>
+        <v>1217547.81313422</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.593583287255558e-07</v>
+        <v>1.387973254040642e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>32</v>
+        <v>31.92708333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>920990.8180841531</v>
+        <v>1101346.758687777</v>
       </c>
     </row>
     <row r="19">
@@ -18756,28 +18756,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>744.1259182941168</v>
+        <v>889.8491551265696</v>
       </c>
       <c r="AB19" t="n">
-        <v>1018.145909928606</v>
+        <v>1217.530871418251</v>
       </c>
       <c r="AC19" t="n">
-        <v>920.9754932617783</v>
+        <v>1101.331433865403</v>
       </c>
       <c r="AD19" t="n">
-        <v>744125.9182941167</v>
+        <v>889849.1551265696</v>
       </c>
       <c r="AE19" t="n">
-        <v>1018145.909928606</v>
+        <v>1217530.871418251</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.612170487248036e-07</v>
+        <v>1.390662399033143e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>32</v>
+        <v>31.875</v>
       </c>
       <c r="AH19" t="n">
-        <v>920975.4932617783</v>
+        <v>1101331.433865403</v>
       </c>
     </row>
   </sheetData>
@@ -19053,28 +19053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>939.1309514557756</v>
+        <v>1109.057604498382</v>
       </c>
       <c r="AB2" t="n">
-        <v>1284.96039931528</v>
+        <v>1517.46154264302</v>
       </c>
       <c r="AC2" t="n">
-        <v>1162.325582257876</v>
+        <v>1372.637142783821</v>
       </c>
       <c r="AD2" t="n">
-        <v>939130.9514557756</v>
+        <v>1109057.604498382</v>
       </c>
       <c r="AE2" t="n">
-        <v>1284960.39931528</v>
+        <v>1517461.54264302</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.132236649552128e-07</v>
+        <v>1.221205465432244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.75520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1162325.582257876</v>
+        <v>1372637.142783821</v>
       </c>
     </row>
     <row r="3">
@@ -19159,28 +19159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>764.5395177613938</v>
+        <v>910.0934917583825</v>
       </c>
       <c r="AB3" t="n">
-        <v>1046.076697304183</v>
+        <v>1245.230065914996</v>
       </c>
       <c r="AC3" t="n">
-        <v>946.2406054913364</v>
+        <v>1126.387056115442</v>
       </c>
       <c r="AD3" t="n">
-        <v>764539.5177613938</v>
+        <v>910093.4917583824</v>
       </c>
       <c r="AE3" t="n">
-        <v>1046076.697304183</v>
+        <v>1245230.065914996</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.431398935048201e-07</v>
+        <v>1.416298666958619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.14322916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>946240.6054913364</v>
+        <v>1126387.056115442</v>
       </c>
     </row>
     <row r="4">
@@ -19265,28 +19265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>705.4273859298431</v>
+        <v>842.8855506936328</v>
       </c>
       <c r="AB4" t="n">
-        <v>965.1968706890511</v>
+        <v>1153.273195945106</v>
       </c>
       <c r="AC4" t="n">
-        <v>873.0798360128035</v>
+        <v>1043.206420753201</v>
       </c>
       <c r="AD4" t="n">
-        <v>705427.3859298432</v>
+        <v>842885.5506936328</v>
       </c>
       <c r="AE4" t="n">
-        <v>965196.8706890511</v>
+        <v>1153273.195945106</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.900003513339401e-07</v>
+        <v>1.486668295487236e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.4765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>873079.8360128035</v>
+        <v>1043206.420753201</v>
       </c>
     </row>
     <row r="5">
@@ -19371,28 +19371,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>672.3643473824742</v>
+        <v>809.9077634922846</v>
       </c>
       <c r="AB5" t="n">
-        <v>919.9585627102258</v>
+        <v>1108.15153261893</v>
       </c>
       <c r="AC5" t="n">
-        <v>832.1590086551132</v>
+        <v>1002.391105646223</v>
       </c>
       <c r="AD5" t="n">
-        <v>672364.3473824742</v>
+        <v>809907.7634922846</v>
       </c>
       <c r="AE5" t="n">
-        <v>919958.5627102258</v>
+        <v>1108151.53261893</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.015148712189546e-06</v>
+        <v>1.524433202052294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.64322916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>832159.0086551132</v>
+        <v>1002391.105646223</v>
       </c>
     </row>
     <row r="6">
@@ -19477,28 +19477,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>653.7772122763694</v>
+        <v>783.2249086615318</v>
       </c>
       <c r="AB6" t="n">
-        <v>894.5268244515255</v>
+        <v>1071.642873475019</v>
       </c>
       <c r="AC6" t="n">
-        <v>809.1544398021542</v>
+        <v>969.3667816907815</v>
       </c>
       <c r="AD6" t="n">
-        <v>653777.2122763693</v>
+        <v>783224.9086615318</v>
       </c>
       <c r="AE6" t="n">
-        <v>894526.8244515255</v>
+        <v>1071642.873475019</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.028690137265641e-06</v>
+        <v>1.544768151741172e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.21354166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>809154.4398021542</v>
+        <v>969366.7816907815</v>
       </c>
     </row>
     <row r="7">
@@ -19583,28 +19583,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>629.9487564198779</v>
+        <v>767.4068316751166</v>
       </c>
       <c r="AB7" t="n">
-        <v>861.9236799113939</v>
+        <v>1049.9998826979</v>
       </c>
       <c r="AC7" t="n">
-        <v>779.6628936181323</v>
+        <v>949.789367577303</v>
       </c>
       <c r="AD7" t="n">
-        <v>629948.7564198779</v>
+        <v>767406.8316751166</v>
       </c>
       <c r="AE7" t="n">
-        <v>861923.6799113939</v>
+        <v>1049999.8826979</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.040424342077822e-06</v>
+        <v>1.562389226565557e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.84895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>779662.8936181323</v>
+        <v>949789.367577303</v>
       </c>
     </row>
     <row r="8">
@@ -19689,28 +19689,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>616.0074038619792</v>
+        <v>745.5403515931623</v>
       </c>
       <c r="AB8" t="n">
-        <v>842.8485062926102</v>
+        <v>1020.081199968753</v>
       </c>
       <c r="AC8" t="n">
-        <v>762.4082277973509</v>
+        <v>922.7260819366904</v>
       </c>
       <c r="AD8" t="n">
-        <v>616007.4038619793</v>
+        <v>745540.3515931623</v>
       </c>
       <c r="AE8" t="n">
-        <v>842848.5062926102</v>
+        <v>1020081.199968753</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.04783139977922e-06</v>
+        <v>1.573512291151014e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.62760416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>762408.227797351</v>
+        <v>922726.0819366905</v>
       </c>
     </row>
     <row r="9">
@@ -19795,28 +19795,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>613.248730445659</v>
+        <v>742.781678176842</v>
       </c>
       <c r="AB9" t="n">
-        <v>839.073967620319</v>
+        <v>1016.306661296462</v>
       </c>
       <c r="AC9" t="n">
-        <v>758.9939257983451</v>
+        <v>919.3117799376845</v>
       </c>
       <c r="AD9" t="n">
-        <v>613248.730445659</v>
+        <v>742781.6781768419</v>
       </c>
       <c r="AE9" t="n">
-        <v>839073.967620319</v>
+        <v>1016306.661296462</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.047475046487744e-06</v>
+        <v>1.572977160896044e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.640625</v>
       </c>
       <c r="AH9" t="n">
-        <v>758993.9257983451</v>
+        <v>919311.7799376845</v>
       </c>
     </row>
   </sheetData>
@@ -20092,28 +20092,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>762.0038813272834</v>
+        <v>918.9970394597489</v>
       </c>
       <c r="AB2" t="n">
-        <v>1042.607327670648</v>
+        <v>1257.412292676808</v>
       </c>
       <c r="AC2" t="n">
-        <v>943.1023476263358</v>
+        <v>1137.40662825297</v>
       </c>
       <c r="AD2" t="n">
-        <v>762003.8813272833</v>
+        <v>918997.0394597489</v>
       </c>
       <c r="AE2" t="n">
-        <v>1042607.327670648</v>
+        <v>1257412.292676808</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.155697407118145e-07</v>
+        <v>1.404252113191231e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.70833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>943102.3476263358</v>
+        <v>1137406.62825297</v>
       </c>
     </row>
     <row r="3">
@@ -20198,28 +20198,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>641.0159568760721</v>
+        <v>774.6052207414394</v>
       </c>
       <c r="AB3" t="n">
-        <v>877.0663118259839</v>
+        <v>1059.849036188956</v>
       </c>
       <c r="AC3" t="n">
-        <v>793.3603339956112</v>
+        <v>958.698531682546</v>
       </c>
       <c r="AD3" t="n">
-        <v>641015.9568760721</v>
+        <v>774605.2207414395</v>
       </c>
       <c r="AE3" t="n">
-        <v>877066.3118259839</v>
+        <v>1059849.036188956</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.026824283934622e-06</v>
+        <v>1.574888407157534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.61979166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>793360.3339956112</v>
+        <v>958698.531682546</v>
       </c>
     </row>
     <row r="4">
@@ -20304,28 +20304,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>600.3624821489896</v>
+        <v>733.6958129591931</v>
       </c>
       <c r="AB4" t="n">
-        <v>821.4424341996638</v>
+        <v>1003.874979665591</v>
       </c>
       <c r="AC4" t="n">
-        <v>743.0451211813444</v>
+        <v>908.0665605536894</v>
       </c>
       <c r="AD4" t="n">
-        <v>600362.4821489896</v>
+        <v>733695.812959193</v>
       </c>
       <c r="AE4" t="n">
-        <v>821442.4341996638</v>
+        <v>1003874.979665591</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064580830538359e-06</v>
+        <v>1.632797387760017e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.43489583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>743045.1211813444</v>
+        <v>908066.5605536895</v>
       </c>
     </row>
     <row r="5">
@@ -20410,28 +20410,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>569.0137608992607</v>
+        <v>702.4323430554848</v>
       </c>
       <c r="AB5" t="n">
-        <v>778.5497307778111</v>
+        <v>961.0989208963877</v>
       </c>
       <c r="AC5" t="n">
-        <v>704.246037173786</v>
+        <v>869.3729887968432</v>
       </c>
       <c r="AD5" t="n">
-        <v>569013.7608992606</v>
+        <v>702432.3430554848</v>
       </c>
       <c r="AE5" t="n">
-        <v>778549.730777811</v>
+        <v>961098.9208963877</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.08369773369938e-06</v>
+        <v>1.662117875831919e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.86197916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>704246.037173786</v>
+        <v>869372.9887968432</v>
       </c>
     </row>
     <row r="6">
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>561.7294293101198</v>
+        <v>687.4605011834068</v>
       </c>
       <c r="AB6" t="n">
-        <v>768.5829869355194</v>
+        <v>940.6137863359637</v>
       </c>
       <c r="AC6" t="n">
-        <v>695.23050537539</v>
+        <v>850.8429267277992</v>
       </c>
       <c r="AD6" t="n">
-        <v>561729.4293101198</v>
+        <v>687460.5011834068</v>
       </c>
       <c r="AE6" t="n">
-        <v>768582.9869355195</v>
+        <v>940613.7863359638</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.090379369755659e-06</v>
+        <v>1.672365813410448e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.66666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>695230.5053753899</v>
+        <v>850842.9267277992</v>
       </c>
     </row>
     <row r="7">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>563.8267800208407</v>
+        <v>689.5578518941277</v>
       </c>
       <c r="AB7" t="n">
-        <v>771.4526747065108</v>
+        <v>943.4834741069551</v>
       </c>
       <c r="AC7" t="n">
-        <v>697.82631417315</v>
+        <v>853.4387355255592</v>
       </c>
       <c r="AD7" t="n">
-        <v>563826.7800208407</v>
+        <v>689557.8518941277</v>
       </c>
       <c r="AE7" t="n">
-        <v>771452.6747065109</v>
+        <v>943483.4741069551</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.090299826469275e-06</v>
+        <v>1.672243814153561e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.66666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>697826.31417315</v>
+        <v>853438.7355255592</v>
       </c>
     </row>
   </sheetData>
@@ -38428,28 +38428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>643.9941352809867</v>
+        <v>789.5203952835801</v>
       </c>
       <c r="AB2" t="n">
-        <v>881.1411869075463</v>
+        <v>1080.256636008573</v>
       </c>
       <c r="AC2" t="n">
-        <v>797.0463087185124</v>
+        <v>977.1584588176254</v>
       </c>
       <c r="AD2" t="n">
-        <v>643994.1352809867</v>
+        <v>789520.3952835801</v>
       </c>
       <c r="AE2" t="n">
-        <v>881141.1869075462</v>
+        <v>1080256.636008573</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.997489903354284e-07</v>
+        <v>1.562088076984814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.72916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>797046.3087185124</v>
+        <v>977158.4588176254</v>
       </c>
     </row>
     <row r="3">
@@ -38534,28 +38534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>554.9569640654499</v>
+        <v>685.2320447424322</v>
       </c>
       <c r="AB3" t="n">
-        <v>759.3166012076824</v>
+        <v>937.5647139208627</v>
       </c>
       <c r="AC3" t="n">
-        <v>686.8484904959635</v>
+        <v>848.0848535045953</v>
       </c>
       <c r="AD3" t="n">
-        <v>554956.9640654499</v>
+        <v>685232.0447424322</v>
       </c>
       <c r="AE3" t="n">
-        <v>759316.6012076824</v>
+        <v>937564.7139208626</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.094128586377794e-06</v>
+        <v>1.709554334128977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.64322916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>686848.4904959635</v>
+        <v>848084.8535045953</v>
       </c>
     </row>
     <row r="4">
@@ -38640,28 +38640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>521.9734298552569</v>
+        <v>652.1631696776677</v>
       </c>
       <c r="AB4" t="n">
-        <v>714.187074570465</v>
+        <v>892.3184201614478</v>
       </c>
       <c r="AC4" t="n">
-        <v>646.026062541314</v>
+        <v>807.1568025180069</v>
       </c>
       <c r="AD4" t="n">
-        <v>521973.4298552569</v>
+        <v>652163.1696776677</v>
       </c>
       <c r="AE4" t="n">
-        <v>714187.074570465</v>
+        <v>892318.4201614477</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.121446830393544e-06</v>
+        <v>1.752238551541237e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.84895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>646026.0625413139</v>
+        <v>807156.8025180069</v>
       </c>
     </row>
     <row r="5">
@@ -38746,28 +38746,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>521.7553277040221</v>
+        <v>651.9450675264327</v>
       </c>
       <c r="AB5" t="n">
-        <v>713.8886575851576</v>
+        <v>892.0200031761402</v>
       </c>
       <c r="AC5" t="n">
-        <v>645.7561260542532</v>
+        <v>806.8868660309462</v>
       </c>
       <c r="AD5" t="n">
-        <v>521755.3277040221</v>
+        <v>651945.0675264327</v>
       </c>
       <c r="AE5" t="n">
-        <v>713888.6575851575</v>
+        <v>892020.0031761402</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.122818228185499e-06</v>
+        <v>1.754381333539844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.80989583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>645756.1260542532</v>
+        <v>806886.8660309461</v>
       </c>
     </row>
   </sheetData>
@@ -39043,28 +39043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>449.3708444091652</v>
+        <v>573.2453582603933</v>
       </c>
       <c r="AB2" t="n">
-        <v>614.8490141631088</v>
+        <v>784.3395889722129</v>
       </c>
       <c r="AC2" t="n">
-        <v>556.1686871973922</v>
+        <v>709.4833194282311</v>
       </c>
       <c r="AD2" t="n">
-        <v>449370.8444091651</v>
+        <v>573245.3582603934</v>
       </c>
       <c r="AE2" t="n">
-        <v>614849.0141631088</v>
+        <v>784339.588972213</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.165973186920501e-06</v>
+        <v>1.900158674553784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.87760416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>556168.6871973921</v>
+        <v>709483.3194282311</v>
       </c>
     </row>
     <row r="3">
@@ -39149,28 +39149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.3842930903133</v>
+        <v>573.2588069415415</v>
       </c>
       <c r="AB3" t="n">
-        <v>614.8674152419698</v>
+        <v>784.3579900510737</v>
       </c>
       <c r="AC3" t="n">
-        <v>556.1853321031125</v>
+        <v>709.4999643339515</v>
       </c>
       <c r="AD3" t="n">
-        <v>449384.2930903133</v>
+        <v>573258.8069415415</v>
       </c>
       <c r="AE3" t="n">
-        <v>614867.4152419697</v>
+        <v>784357.9900510737</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.170771672780779e-06</v>
+        <v>1.907978652435277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>556185.3321031125</v>
+        <v>709499.9643339516</v>
       </c>
     </row>
   </sheetData>
@@ -39446,28 +39446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1135.939153501938</v>
+        <v>1318.392206218784</v>
       </c>
       <c r="AB2" t="n">
-        <v>1554.242063919929</v>
+        <v>1803.882379907715</v>
       </c>
       <c r="AC2" t="n">
-        <v>1405.907382731848</v>
+        <v>1631.722377334143</v>
       </c>
       <c r="AD2" t="n">
-        <v>1135939.153501938</v>
+        <v>1318392.206218784</v>
       </c>
       <c r="AE2" t="n">
-        <v>1554242.063919929</v>
+        <v>1803882.379907715</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.270775808349614e-07</v>
+        <v>1.074170461503087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.08854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1405907.382731848</v>
+        <v>1631722.377334143</v>
       </c>
     </row>
     <row r="3">
@@ -39552,28 +39552,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>877.1736253136622</v>
+        <v>1034.735001604293</v>
       </c>
       <c r="AB3" t="n">
-        <v>1200.187652323322</v>
+        <v>1415.7700784815</v>
       </c>
       <c r="AC3" t="n">
-        <v>1085.643427259533</v>
+        <v>1280.65096923701</v>
       </c>
       <c r="AD3" t="n">
-        <v>877173.6253136622</v>
+        <v>1034735.001604293</v>
       </c>
       <c r="AE3" t="n">
-        <v>1200187.652323322</v>
+        <v>1415770.0784815</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.726752787680519e-07</v>
+        <v>1.289273705647917e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.73177083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1085643.427259533</v>
+        <v>1280650.96923701</v>
       </c>
     </row>
     <row r="4">
@@ -39658,28 +39658,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>803.447422681592</v>
+        <v>952.7116033330019</v>
       </c>
       <c r="AB4" t="n">
-        <v>1099.312209311619</v>
+        <v>1303.542046349777</v>
       </c>
       <c r="AC4" t="n">
-        <v>994.3953949492932</v>
+        <v>1179.133822978906</v>
       </c>
       <c r="AD4" t="n">
-        <v>803447.4226815921</v>
+        <v>952711.603333002</v>
       </c>
       <c r="AE4" t="n">
-        <v>1099312.209311619</v>
+        <v>1303542.046349777</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.275760001733262e-07</v>
+        <v>1.370382977620012e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.55729166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>994395.3949492932</v>
+        <v>1179133.822978906</v>
       </c>
     </row>
     <row r="5">
@@ -39764,28 +39764,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>766.408860110667</v>
+        <v>907.4611859774272</v>
       </c>
       <c r="AB5" t="n">
-        <v>1048.634413976022</v>
+        <v>1241.628429016358</v>
       </c>
       <c r="AC5" t="n">
-        <v>948.5542172737936</v>
+        <v>1123.129154387482</v>
       </c>
       <c r="AD5" t="n">
-        <v>766408.860110667</v>
+        <v>907461.1859774273</v>
       </c>
       <c r="AE5" t="n">
-        <v>1048634.413976022</v>
+        <v>1241628.429016358</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.557649356033886e-07</v>
+        <v>1.412028769731245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.54166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>948554.2172737936</v>
+        <v>1123129.154387482</v>
       </c>
     </row>
     <row r="6">
@@ -39870,28 +39870,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>737.5288243781351</v>
+        <v>878.4958093903239</v>
       </c>
       <c r="AB6" t="n">
-        <v>1009.119474989517</v>
+        <v>1201.996722907655</v>
       </c>
       <c r="AC6" t="n">
-        <v>912.8105286045952</v>
+        <v>1087.279842686344</v>
       </c>
       <c r="AD6" t="n">
-        <v>737528.8243781351</v>
+        <v>878495.8093903238</v>
       </c>
       <c r="AE6" t="n">
-        <v>1009119.474989517</v>
+        <v>1201996.722907655</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.739584930556297e-07</v>
+        <v>1.438907582281639e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.91666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>912810.5286045952</v>
+        <v>1087279.842686344</v>
       </c>
     </row>
     <row r="7">
@@ -39976,28 +39976,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>721.8697836678933</v>
+        <v>862.8367686800822</v>
       </c>
       <c r="AB7" t="n">
-        <v>987.6940846616444</v>
+        <v>1180.571332579783</v>
       </c>
       <c r="AC7" t="n">
-        <v>893.4299474588905</v>
+        <v>1067.899261540639</v>
       </c>
       <c r="AD7" t="n">
-        <v>721869.7836678934</v>
+        <v>862836.7686800822</v>
       </c>
       <c r="AE7" t="n">
-        <v>987694.0846616444</v>
+        <v>1180571.332579783</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.859972611126608e-07</v>
+        <v>1.456693427122156e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.51302083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>893429.9474588905</v>
+        <v>1067899.261540639</v>
       </c>
     </row>
     <row r="8">
@@ -40082,28 +40082,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>709.1316695669589</v>
+        <v>841.8015484484774</v>
       </c>
       <c r="AB8" t="n">
-        <v>970.2652349828132</v>
+        <v>1151.79001625048</v>
       </c>
       <c r="AC8" t="n">
-        <v>877.6644827318629</v>
+        <v>1041.864793646974</v>
       </c>
       <c r="AD8" t="n">
-        <v>709131.6695669589</v>
+        <v>841801.5484484774</v>
       </c>
       <c r="AE8" t="n">
-        <v>970265.2349828132</v>
+        <v>1151790.01625048</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.935553424899788e-07</v>
+        <v>1.467859591469885e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>33</v>
+        <v>32.265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>877664.4827318629</v>
+        <v>1041864.793646974</v>
       </c>
     </row>
     <row r="9">
@@ -40188,28 +40188,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>688.1054795158154</v>
+        <v>828.9871236734324</v>
       </c>
       <c r="AB9" t="n">
-        <v>941.496274144801</v>
+        <v>1134.256754940742</v>
       </c>
       <c r="AC9" t="n">
-        <v>851.6411911387404</v>
+        <v>1026.00488218855</v>
       </c>
       <c r="AD9" t="n">
-        <v>688105.4795158154</v>
+        <v>828987.1236734324</v>
       </c>
       <c r="AE9" t="n">
-        <v>941496.274144801</v>
+        <v>1134256.754940742</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.002172047643273e-06</v>
+        <v>1.480589746263711e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.9921875</v>
       </c>
       <c r="AH9" t="n">
-        <v>851641.1911387404</v>
+        <v>1026004.88218855</v>
       </c>
     </row>
     <row r="10">
@@ -40294,28 +40294,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>672.2125110744241</v>
+        <v>813.0941552320411</v>
       </c>
       <c r="AB10" t="n">
-        <v>919.7508135750064</v>
+        <v>1112.511294370947</v>
       </c>
       <c r="AC10" t="n">
-        <v>831.9710868057816</v>
+        <v>1006.334777855592</v>
       </c>
       <c r="AD10" t="n">
-        <v>672212.5110744241</v>
+        <v>813094.1552320411</v>
       </c>
       <c r="AE10" t="n">
-        <v>919750.8135750064</v>
+        <v>1112511.294370947</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.007391309050411e-06</v>
+        <v>1.488300582881686e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>31.82291666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>831971.0868057816</v>
+        <v>1006334.777855592</v>
       </c>
     </row>
     <row r="11">
@@ -40400,28 +40400,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>665.6077641060861</v>
+        <v>806.4894082637032</v>
       </c>
       <c r="AB11" t="n">
-        <v>910.7139073920548</v>
+        <v>1103.474388187996</v>
       </c>
       <c r="AC11" t="n">
-        <v>823.7966502655532</v>
+        <v>998.1603413153636</v>
       </c>
       <c r="AD11" t="n">
-        <v>665607.7641060861</v>
+        <v>806489.4082637032</v>
       </c>
       <c r="AE11" t="n">
-        <v>910713.9073920548</v>
+        <v>1103474.388187996</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.009459318287202e-06</v>
+        <v>1.491355820032204e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>32</v>
+        <v>31.7578125</v>
       </c>
       <c r="AH11" t="n">
-        <v>823796.6502655533</v>
+        <v>998160.3413153635</v>
       </c>
     </row>
     <row r="12">
@@ -40506,28 +40506,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>663.990550082297</v>
+        <v>804.8721942399139</v>
       </c>
       <c r="AB12" t="n">
-        <v>908.501163818259</v>
+        <v>1101.2616446142</v>
       </c>
       <c r="AC12" t="n">
-        <v>821.7950878328355</v>
+        <v>996.1587788826455</v>
       </c>
       <c r="AD12" t="n">
-        <v>663990.5500822969</v>
+        <v>804872.194239914</v>
       </c>
       <c r="AE12" t="n">
-        <v>908501.163818259</v>
+        <v>1101261.6446142</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.011059563529956e-06</v>
+        <v>1.493719991636772e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>31.70572916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>821795.0878328355</v>
+        <v>996158.7788826455</v>
       </c>
     </row>
     <row r="13">
@@ -40612,28 +40612,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>665.6843210918591</v>
+        <v>806.5659652494762</v>
       </c>
       <c r="AB13" t="n">
-        <v>910.8186560374453</v>
+        <v>1103.579136833386</v>
       </c>
       <c r="AC13" t="n">
-        <v>823.8914018472433</v>
+        <v>998.2550928970536</v>
       </c>
       <c r="AD13" t="n">
-        <v>665684.3210918591</v>
+        <v>806565.9652494763</v>
       </c>
       <c r="AE13" t="n">
-        <v>910818.6560374453</v>
+        <v>1103579.136833386</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.010862610269309e-06</v>
+        <v>1.493429016670056e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>32</v>
+        <v>31.70572916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>823891.4018472433</v>
+        <v>998255.0928970536</v>
       </c>
     </row>
   </sheetData>
@@ -40909,28 +40909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1429.207201423511</v>
+        <v>1642.261180240585</v>
       </c>
       <c r="AB2" t="n">
-        <v>1955.504345159376</v>
+        <v>2247.014198255074</v>
       </c>
       <c r="AC2" t="n">
-        <v>1768.87375502495</v>
+        <v>2032.562316877844</v>
       </c>
       <c r="AD2" t="n">
-        <v>1429207.201423511</v>
+        <v>1642261.180240585</v>
       </c>
       <c r="AE2" t="n">
-        <v>1955504.345159376</v>
+        <v>2247014.198255074</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.283486639471358e-07</v>
+        <v>9.124684607957932e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.16666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1768873.75502495</v>
+        <v>2032562.316877844</v>
       </c>
     </row>
     <row r="3">
@@ -41015,28 +41015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1035.066098232407</v>
+        <v>1213.918715323532</v>
       </c>
       <c r="AB3" t="n">
-        <v>1416.223099495038</v>
+        <v>1660.937140619703</v>
       </c>
       <c r="AC3" t="n">
-        <v>1281.060754560835</v>
+        <v>1502.419631058875</v>
       </c>
       <c r="AD3" t="n">
-        <v>1035066.098232407</v>
+        <v>1213918.715323532</v>
       </c>
       <c r="AE3" t="n">
-        <v>1416223.099495038</v>
+        <v>1660937.140619703</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.929206899911319e-07</v>
+        <v>1.151454857856143e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.95833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1281060.754560835</v>
+        <v>1502419.631058875</v>
       </c>
     </row>
     <row r="4">
@@ -41121,28 +41121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>940.003119911497</v>
+        <v>1093.439559698196</v>
       </c>
       <c r="AB4" t="n">
-        <v>1286.153738673755</v>
+        <v>1496.092244727898</v>
       </c>
       <c r="AC4" t="n">
-        <v>1163.40503098284</v>
+        <v>1353.30730066972</v>
       </c>
       <c r="AD4" t="n">
-        <v>940003.119911497</v>
+        <v>1093439.559698196</v>
       </c>
       <c r="AE4" t="n">
-        <v>1286153.738673755</v>
+        <v>1496092.244727898</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.551719508156158e-07</v>
+        <v>1.241854210009286e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.11979166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1163405.03098284</v>
+        <v>1353307.30066972</v>
       </c>
     </row>
     <row r="5">
@@ -41227,28 +41227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>882.7903784159943</v>
+        <v>1036.226728694142</v>
       </c>
       <c r="AB5" t="n">
-        <v>1207.872741711591</v>
+        <v>1417.811125296186</v>
       </c>
       <c r="AC5" t="n">
-        <v>1092.595062502677</v>
+        <v>1282.49722140833</v>
       </c>
       <c r="AD5" t="n">
-        <v>882790.3784159942</v>
+        <v>1036226.728694142</v>
       </c>
       <c r="AE5" t="n">
-        <v>1207872.741711591</v>
+        <v>1417811.125296186</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.895951899376917e-07</v>
+        <v>1.291842571279946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.7265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1092595.062502677</v>
+        <v>1282497.22140833</v>
       </c>
     </row>
     <row r="6">
@@ -41333,28 +41333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>849.8401028953209</v>
+        <v>1003.191112318897</v>
       </c>
       <c r="AB6" t="n">
-        <v>1162.788721080645</v>
+        <v>1372.610337543042</v>
       </c>
       <c r="AC6" t="n">
-        <v>1051.813797524927</v>
+        <v>1241.610333398641</v>
       </c>
       <c r="AD6" t="n">
-        <v>849840.1028953209</v>
+        <v>1003191.112318897</v>
       </c>
       <c r="AE6" t="n">
-        <v>1162788.721080645</v>
+        <v>1372610.337543042</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.10282346736072e-07</v>
+        <v>1.321883819404009e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.93229166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1051813.797524927</v>
+        <v>1241610.333398641</v>
       </c>
     </row>
     <row r="7">
@@ -41439,28 +41439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>831.9340054745671</v>
+        <v>976.7561215659878</v>
       </c>
       <c r="AB7" t="n">
-        <v>1138.288808628304</v>
+        <v>1336.440816965428</v>
       </c>
       <c r="AC7" t="n">
-        <v>1029.652122331195</v>
+        <v>1208.892781100714</v>
       </c>
       <c r="AD7" t="n">
-        <v>831934.0054745672</v>
+        <v>976756.1215659878</v>
       </c>
       <c r="AE7" t="n">
-        <v>1138288.808628304</v>
+        <v>1336440.816965427</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.242793909001137e-07</v>
+        <v>1.342209893249418e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.42447916666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1029652.122331195</v>
+        <v>1208892.781100714</v>
       </c>
     </row>
     <row r="8">
@@ -41545,28 +41545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>818.0220276686633</v>
+        <v>962.844143760084</v>
       </c>
       <c r="AB8" t="n">
-        <v>1119.253826841122</v>
+        <v>1317.405835178245</v>
       </c>
       <c r="AC8" t="n">
-        <v>1012.433812490017</v>
+        <v>1191.674471259535</v>
       </c>
       <c r="AD8" t="n">
-        <v>818022.0276686633</v>
+        <v>962844.1437600839</v>
       </c>
       <c r="AE8" t="n">
-        <v>1119253.826841122</v>
+        <v>1317405.835178245</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.352160643910005e-07</v>
+        <v>1.358091791626933e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.03385416666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1012433.812490017</v>
+        <v>1191674.471259536</v>
       </c>
     </row>
     <row r="9">
@@ -41651,28 +41651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>799.0001189361163</v>
+        <v>943.9074863735575</v>
       </c>
       <c r="AB9" t="n">
-        <v>1093.227212125865</v>
+        <v>1291.495865115638</v>
       </c>
       <c r="AC9" t="n">
-        <v>988.8911413546003</v>
+        <v>1168.237312374831</v>
       </c>
       <c r="AD9" t="n">
-        <v>799000.1189361163</v>
+        <v>943907.4863735575</v>
       </c>
       <c r="AE9" t="n">
-        <v>1093227.212125865</v>
+        <v>1291495.865115638</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.418587294180034e-07</v>
+        <v>1.367738063960348e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>33</v>
+        <v>32.79947916666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>988891.1413546003</v>
+        <v>1168237.312374831</v>
       </c>
     </row>
     <row r="10">
@@ -41757,28 +41757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>789.5069061217129</v>
+        <v>934.4142735591544</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080.238179542207</v>
+        <v>1278.50683253198</v>
       </c>
       <c r="AC10" t="n">
-        <v>977.1417638105052</v>
+        <v>1156.487934830736</v>
       </c>
       <c r="AD10" t="n">
-        <v>789506.9061217129</v>
+        <v>934414.2735591544</v>
       </c>
       <c r="AE10" t="n">
-        <v>1080238.179542207</v>
+        <v>1278506.83253198</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.479320231569774e-07</v>
+        <v>1.376557512950899e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>33</v>
+        <v>32.59114583333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>977141.7638105052</v>
+        <v>1156487.934830736</v>
       </c>
     </row>
     <row r="11">
@@ -41863,28 +41863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>778.3384181144812</v>
+        <v>923.0751933513304</v>
       </c>
       <c r="AB11" t="n">
-        <v>1064.956961531796</v>
+        <v>1262.992202746722</v>
       </c>
       <c r="AC11" t="n">
-        <v>963.3189637996838</v>
+        <v>1142.453999537264</v>
       </c>
       <c r="AD11" t="n">
-        <v>778338.4181144813</v>
+        <v>923075.1933513305</v>
       </c>
       <c r="AE11" t="n">
-        <v>1064956.961531796</v>
+        <v>1262992.202746722</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.545746881839804e-07</v>
+        <v>1.386203785284313e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>33</v>
+        <v>32.35677083333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>963318.9637996838</v>
+        <v>1142453.999537264</v>
       </c>
     </row>
     <row r="12">
@@ -41969,28 +41969,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>766.5586826246589</v>
+        <v>902.9371567299446</v>
       </c>
       <c r="AB12" t="n">
-        <v>1048.839407749369</v>
+        <v>1235.438452613868</v>
       </c>
       <c r="AC12" t="n">
-        <v>948.7396467291225</v>
+        <v>1117.529940645159</v>
       </c>
       <c r="AD12" t="n">
-        <v>766558.6826246589</v>
+        <v>902937.1567299446</v>
       </c>
       <c r="AE12" t="n">
-        <v>1048839.407749369</v>
+        <v>1235438.452613868</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.588686966478644e-07</v>
+        <v>1.392439411328414e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>33</v>
+        <v>32.21354166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>948739.6467291225</v>
+        <v>1117529.940645159</v>
       </c>
     </row>
     <row r="13">
@@ -42075,28 +42075,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>761.8644538690671</v>
+        <v>898.2429279743527</v>
       </c>
       <c r="AB13" t="n">
-        <v>1042.416556871211</v>
+        <v>1229.015601735711</v>
       </c>
       <c r="AC13" t="n">
-        <v>942.9297837242485</v>
+        <v>1111.720077640284</v>
       </c>
       <c r="AD13" t="n">
-        <v>761864.4538690671</v>
+        <v>898242.9279743527</v>
       </c>
       <c r="AE13" t="n">
-        <v>1042416.556871211</v>
+        <v>1229015.601735711</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.607428771376259e-07</v>
+        <v>1.395161038165341e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>33</v>
+        <v>32.1484375</v>
       </c>
       <c r="AH13" t="n">
-        <v>942929.7837242485</v>
+        <v>1111720.077640285</v>
       </c>
     </row>
     <row r="14">
@@ -42181,28 +42181,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>741.8413489041396</v>
+        <v>886.6633754870091</v>
       </c>
       <c r="AB14" t="n">
-        <v>1015.020061301151</v>
+        <v>1213.171947168726</v>
       </c>
       <c r="AC14" t="n">
-        <v>918.1479712401717</v>
+        <v>1097.388519228464</v>
       </c>
       <c r="AD14" t="n">
-        <v>741841.3489041396</v>
+        <v>886663.3754870092</v>
       </c>
       <c r="AE14" t="n">
-        <v>1015020.061301151</v>
+        <v>1213171.947168726</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.660332853555604e-07</v>
+        <v>1.402843605059454e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>32</v>
+        <v>31.97916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>918147.9712401717</v>
+        <v>1097388.519228464</v>
       </c>
     </row>
     <row r="15">
@@ -42287,28 +42287,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>734.4660884843424</v>
+        <v>879.2881150672123</v>
       </c>
       <c r="AB15" t="n">
-        <v>1004.928904621258</v>
+        <v>1203.080790488834</v>
       </c>
       <c r="AC15" t="n">
-        <v>909.0199003907808</v>
+        <v>1088.260448379073</v>
       </c>
       <c r="AD15" t="n">
-        <v>734466.0884843424</v>
+        <v>879288.1150672123</v>
       </c>
       <c r="AE15" t="n">
-        <v>1004928.904621258</v>
+        <v>1203080.790488834</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.672431993426214e-07</v>
+        <v>1.40460060466304e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>32</v>
+        <v>31.94010416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>909019.9003907808</v>
+        <v>1088260.448379073</v>
       </c>
     </row>
     <row r="16">
@@ -42393,28 +42393,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>728.1912356826779</v>
+        <v>873.0132622655475</v>
       </c>
       <c r="AB16" t="n">
-        <v>996.3433741910527</v>
+        <v>1194.495260058628</v>
       </c>
       <c r="AC16" t="n">
-        <v>901.2537609349664</v>
+        <v>1080.494308923258</v>
       </c>
       <c r="AD16" t="n">
-        <v>728191.2356826778</v>
+        <v>873013.2622655475</v>
       </c>
       <c r="AE16" t="n">
-        <v>996343.3741910527</v>
+        <v>1194495.260058628</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.699714367644262e-07</v>
+        <v>1.408562466514264e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>32</v>
+        <v>31.84895833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>901253.7609349664</v>
+        <v>1080494.308923258</v>
       </c>
     </row>
     <row r="17">
@@ -42499,28 +42499,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>727.2444135376039</v>
+        <v>872.0664401204737</v>
       </c>
       <c r="AB17" t="n">
-        <v>995.0478903613174</v>
+        <v>1193.199776228893</v>
       </c>
       <c r="AC17" t="n">
-        <v>900.081916263718</v>
+        <v>1079.32246425201</v>
       </c>
       <c r="AD17" t="n">
-        <v>727244.4135376039</v>
+        <v>872066.4401204736</v>
       </c>
       <c r="AE17" t="n">
-        <v>995047.8903613174</v>
+        <v>1193199.776228893</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.700900557827657e-07</v>
+        <v>1.408734721377361e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>32</v>
+        <v>31.84895833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>900081.9162637179</v>
+        <v>1079322.46425201</v>
       </c>
     </row>
     <row r="18">
@@ -42605,28 +42605,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>729.2159069156723</v>
+        <v>874.0379334985421</v>
       </c>
       <c r="AB18" t="n">
-        <v>997.7453745773399</v>
+        <v>1195.897260444915</v>
       </c>
       <c r="AC18" t="n">
-        <v>902.5219563721062</v>
+        <v>1081.762504360399</v>
       </c>
       <c r="AD18" t="n">
-        <v>729215.9069156724</v>
+        <v>874037.9334985421</v>
       </c>
       <c r="AE18" t="n">
-        <v>997745.37457734</v>
+        <v>1195897.260444915</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.69829093942419e-07</v>
+        <v>1.408355760678548e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>32</v>
+        <v>31.84895833333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>902521.9563721062</v>
+        <v>1081762.504360399</v>
       </c>
     </row>
   </sheetData>
@@ -42902,28 +42902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>414.7864072215082</v>
+        <v>542.6976769770649</v>
       </c>
       <c r="AB2" t="n">
-        <v>567.5290614452705</v>
+        <v>742.5429037717786</v>
       </c>
       <c r="AC2" t="n">
-        <v>513.3648843529736</v>
+        <v>671.67565120131</v>
       </c>
       <c r="AD2" t="n">
-        <v>414786.4072215082</v>
+        <v>542697.6769770649</v>
       </c>
       <c r="AE2" t="n">
-        <v>567529.0614452704</v>
+        <v>742542.9037717786</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.168988848304417e-06</v>
+        <v>1.948634762888008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.95833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>513364.8843529736</v>
+        <v>671675.65120131</v>
       </c>
     </row>
   </sheetData>
@@ -43199,28 +43199,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>819.5309848439937</v>
+        <v>978.2964635057393</v>
       </c>
       <c r="AB2" t="n">
-        <v>1121.318448618901</v>
+        <v>1338.548380762486</v>
       </c>
       <c r="AC2" t="n">
-        <v>1014.30138966304</v>
+        <v>1210.799201966965</v>
       </c>
       <c r="AD2" t="n">
-        <v>819530.9848439937</v>
+        <v>978296.4635057393</v>
       </c>
       <c r="AE2" t="n">
-        <v>1121318.448618901</v>
+        <v>1338548.380762486</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.798590242321401e-07</v>
+        <v>1.339063275160613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1014301.38966304</v>
+        <v>1210799.201966965</v>
       </c>
     </row>
     <row r="3">
@@ -43305,28 +43305,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>686.2008963646691</v>
+        <v>821.1388416075183</v>
       </c>
       <c r="AB3" t="n">
-        <v>938.8903394531241</v>
+        <v>1123.51838917639</v>
       </c>
       <c r="AC3" t="n">
-        <v>849.2839631965848</v>
+        <v>1016.291370981357</v>
       </c>
       <c r="AD3" t="n">
-        <v>686200.8963646691</v>
+        <v>821138.8416075183</v>
       </c>
       <c r="AE3" t="n">
-        <v>938890.3394531241</v>
+        <v>1123518.38917639</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.964942338586367e-07</v>
+        <v>1.516571173017093e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>849283.9631965847</v>
+        <v>1016291.370981357</v>
       </c>
     </row>
     <row r="4">
@@ -43411,28 +43411,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>634.1097610578264</v>
+        <v>769.0476167921247</v>
       </c>
       <c r="AB4" t="n">
-        <v>867.616950027604</v>
+        <v>1052.244877281321</v>
       </c>
       <c r="AC4" t="n">
-        <v>784.8128060250061</v>
+        <v>951.8201030285519</v>
       </c>
       <c r="AD4" t="n">
-        <v>634109.7610578265</v>
+        <v>769047.6167921247</v>
       </c>
       <c r="AE4" t="n">
-        <v>867616.950027604</v>
+        <v>1052244.877281321</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.038507992164955e-06</v>
+        <v>1.580512189986901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.76041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>784812.8060250061</v>
+        <v>951820.1030285519</v>
       </c>
     </row>
     <row r="5">
@@ -43517,28 +43517,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>610.0149838447871</v>
+        <v>737.0103881118205</v>
       </c>
       <c r="AB5" t="n">
-        <v>834.6494128581747</v>
+        <v>1008.410127618151</v>
       </c>
       <c r="AC5" t="n">
-        <v>754.9916443327982</v>
+        <v>912.1688803507774</v>
       </c>
       <c r="AD5" t="n">
-        <v>610014.9838447871</v>
+        <v>737010.3881118204</v>
       </c>
       <c r="AE5" t="n">
-        <v>834649.4128581748</v>
+        <v>1008410.127618151</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.059750022950426e-06</v>
+        <v>1.612840577298128e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>754991.6443327982</v>
+        <v>912168.8803507774</v>
       </c>
     </row>
     <row r="6">
@@ -43623,28 +43623,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>582.983207225872</v>
+        <v>710.0638628389261</v>
       </c>
       <c r="AB6" t="n">
-        <v>797.6633435303572</v>
+        <v>971.5407029429831</v>
       </c>
       <c r="AC6" t="n">
-        <v>721.5354735513532</v>
+        <v>878.8182218200448</v>
       </c>
       <c r="AD6" t="n">
-        <v>582983.207225872</v>
+        <v>710063.862838926</v>
       </c>
       <c r="AE6" t="n">
-        <v>797663.3435303572</v>
+        <v>971540.7029429831</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.073754609052533e-06</v>
+        <v>1.634154249621397e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.6796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>721535.4735513532</v>
+        <v>878818.2218200448</v>
       </c>
     </row>
     <row r="7">
@@ -43729,28 +43729,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>579.5141205499921</v>
+        <v>706.594776163046</v>
       </c>
       <c r="AB7" t="n">
-        <v>792.9167860951155</v>
+        <v>966.7941455077415</v>
       </c>
       <c r="AC7" t="n">
-        <v>717.2419208958956</v>
+        <v>874.5246691645873</v>
       </c>
       <c r="AD7" t="n">
-        <v>579514.1205499921</v>
+        <v>706594.776163046</v>
       </c>
       <c r="AE7" t="n">
-        <v>792916.7860951155</v>
+        <v>966794.1455077415</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.076367404967104e-06</v>
+        <v>1.638130681024992e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.6015625</v>
       </c>
       <c r="AH7" t="n">
-        <v>717241.9208958957</v>
+        <v>874524.6691645873</v>
       </c>
     </row>
     <row r="8">
@@ -43835,28 +43835,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>581.7591541278304</v>
+        <v>708.8398097408842</v>
       </c>
       <c r="AB8" t="n">
-        <v>795.9885400802053</v>
+        <v>969.8658994928312</v>
       </c>
       <c r="AC8" t="n">
-        <v>720.0205109918822</v>
+        <v>877.3032592605739</v>
       </c>
       <c r="AD8" t="n">
-        <v>581759.1541278304</v>
+        <v>708839.8097408842</v>
       </c>
       <c r="AE8" t="n">
-        <v>795988.5400802053</v>
+        <v>969865.8994928312</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.076236765171376e-06</v>
+        <v>1.637931859454813e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.61458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>720020.5109918823</v>
+        <v>877303.2592605739</v>
       </c>
     </row>
   </sheetData>
@@ -44132,28 +44132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000.930725340611</v>
+        <v>1180.416908998154</v>
       </c>
       <c r="AB2" t="n">
-        <v>1369.517576358115</v>
+        <v>1615.098491209938</v>
       </c>
       <c r="AC2" t="n">
-        <v>1238.812741000487</v>
+        <v>1460.95575801383</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000930.725340611</v>
+        <v>1180416.908998154</v>
       </c>
       <c r="AE2" t="n">
-        <v>1369517.576358115</v>
+        <v>1615098.491209938</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.824405374899004e-07</v>
+        <v>1.168113845854487e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.86197916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1238812.741000487</v>
+        <v>1460955.75801383</v>
       </c>
     </row>
     <row r="3">
@@ -44238,28 +44238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>798.5382321131356</v>
+        <v>953.5257523115848</v>
       </c>
       <c r="AB3" t="n">
-        <v>1092.595238197654</v>
+        <v>1304.656000899992</v>
       </c>
       <c r="AC3" t="n">
-        <v>988.3194821311171</v>
+        <v>1180.141463270294</v>
       </c>
       <c r="AD3" t="n">
-        <v>798538.2321131355</v>
+        <v>953525.7523115848</v>
       </c>
       <c r="AE3" t="n">
-        <v>1092595.238197654</v>
+        <v>1304656.000899992</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.188343323159755e-07</v>
+        <v>1.371737600748489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.65104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>988319.482131117</v>
+        <v>1180141.463270294</v>
       </c>
     </row>
     <row r="4">
@@ -44344,28 +44344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>735.691099618298</v>
+        <v>882.5123986637161</v>
       </c>
       <c r="AB4" t="n">
-        <v>1006.605018898413</v>
+        <v>1207.492397550923</v>
       </c>
       <c r="AC4" t="n">
-        <v>910.536048673765</v>
+        <v>1092.251017854887</v>
       </c>
       <c r="AD4" t="n">
-        <v>735691.099618298</v>
+        <v>882512.3986637162</v>
       </c>
       <c r="AE4" t="n">
-        <v>1006605.018898413</v>
+        <v>1207492.397550923</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.684412233888307e-07</v>
+        <v>1.445796258928307e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>910536.048673765</v>
+        <v>1092251.017854887</v>
       </c>
     </row>
     <row r="5">
@@ -44450,28 +44450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>701.063126960606</v>
+        <v>839.8035457075646</v>
       </c>
       <c r="AB5" t="n">
-        <v>959.2254990298237</v>
+        <v>1149.056260754703</v>
       </c>
       <c r="AC5" t="n">
-        <v>867.6783636838599</v>
+        <v>1039.391943938865</v>
       </c>
       <c r="AD5" t="n">
-        <v>701063.1269606061</v>
+        <v>839803.5457075646</v>
       </c>
       <c r="AE5" t="n">
-        <v>959225.4990298237</v>
+        <v>1149056.260754703</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.948043176303885e-07</v>
+        <v>1.485154004249021e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.9296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>867678.3636838598</v>
+        <v>1039391.943938865</v>
       </c>
     </row>
     <row r="6">
@@ -44556,28 +44556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>683.131552555026</v>
+        <v>821.7013791013925</v>
       </c>
       <c r="AB6" t="n">
-        <v>934.6907278428782</v>
+        <v>1124.288077792911</v>
       </c>
       <c r="AC6" t="n">
-        <v>845.4851566242289</v>
+        <v>1016.987601596583</v>
       </c>
       <c r="AD6" t="n">
-        <v>683131.552555026</v>
+        <v>821701.3791013925</v>
       </c>
       <c r="AE6" t="n">
-        <v>934690.7278428782</v>
+        <v>1124288.077792911</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.009470046583469e-06</v>
+        <v>1.507048627838694e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.44791666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>845485.1566242289</v>
+        <v>1016987.601596583</v>
       </c>
     </row>
     <row r="7">
@@ -44662,28 +44662,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>667.1120437083358</v>
+        <v>797.6863308108144</v>
       </c>
       <c r="AB7" t="n">
-        <v>912.7721291079853</v>
+        <v>1091.429629252585</v>
       </c>
       <c r="AC7" t="n">
-        <v>825.6584381896477</v>
+        <v>987.2651172678233</v>
       </c>
       <c r="AD7" t="n">
-        <v>667112.0437083358</v>
+        <v>797686.3308108144</v>
       </c>
       <c r="AE7" t="n">
-        <v>912772.1291079853</v>
+        <v>1091429.629252585</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.02066429938642e-06</v>
+        <v>1.523760647559798e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.09635416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>825658.4381896476</v>
+        <v>987265.1172678233</v>
       </c>
     </row>
     <row r="8">
@@ -44768,28 +44768,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>644.6663362747888</v>
+        <v>783.3214141671758</v>
       </c>
       <c r="AB8" t="n">
-        <v>882.0609219626815</v>
+        <v>1071.774916565363</v>
       </c>
       <c r="AC8" t="n">
-        <v>797.8782655508415</v>
+        <v>969.4862227739072</v>
       </c>
       <c r="AD8" t="n">
-        <v>644666.3362747888</v>
+        <v>783321.4141671758</v>
       </c>
       <c r="AE8" t="n">
-        <v>882060.9219626815</v>
+        <v>1071774.916565363</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.028538009784901e-06</v>
+        <v>1.535515394015317e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.84895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>797878.2655508416</v>
+        <v>969486.2227739072</v>
       </c>
     </row>
     <row r="9">
@@ -44874,28 +44874,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>634.9646703066768</v>
+        <v>765.6242087551757</v>
       </c>
       <c r="AB9" t="n">
-        <v>868.7866745778152</v>
+        <v>1047.560819375065</v>
       </c>
       <c r="AC9" t="n">
-        <v>785.8708937058638</v>
+        <v>947.5830850347518</v>
       </c>
       <c r="AD9" t="n">
-        <v>634964.6703066768</v>
+        <v>765624.2087551757</v>
       </c>
       <c r="AE9" t="n">
-        <v>868786.6745778152</v>
+        <v>1047560.819375064</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.033820690882923e-06</v>
+        <v>1.543401965119659e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.6796875</v>
       </c>
       <c r="AH9" t="n">
-        <v>785870.8937058637</v>
+        <v>947583.0850347518</v>
       </c>
     </row>
     <row r="10">
@@ -44980,28 +44980,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>630.397791705191</v>
+        <v>761.0573301536899</v>
       </c>
       <c r="AB10" t="n">
-        <v>862.5380697987981</v>
+        <v>1041.312214596047</v>
       </c>
       <c r="AC10" t="n">
-        <v>780.2186469969841</v>
+        <v>941.9308383258721</v>
       </c>
       <c r="AD10" t="n">
-        <v>630397.791705191</v>
+        <v>761057.33015369</v>
       </c>
       <c r="AE10" t="n">
-        <v>862538.0697987981</v>
+        <v>1041312.214596047</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.035657051455092e-06</v>
+        <v>1.54614348745593e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>31.62760416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>780218.6469969841</v>
+        <v>941930.8383258721</v>
       </c>
     </row>
     <row r="11">
@@ -45086,28 +45086,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>632.371916496905</v>
+        <v>763.0314549454041</v>
       </c>
       <c r="AB11" t="n">
-        <v>865.2391544310602</v>
+        <v>1044.01329922831</v>
       </c>
       <c r="AC11" t="n">
-        <v>782.6619439029394</v>
+        <v>944.3741352318273</v>
       </c>
       <c r="AD11" t="n">
-        <v>632371.916496905</v>
+        <v>763031.4549454041</v>
       </c>
       <c r="AE11" t="n">
-        <v>865239.1544310602</v>
+        <v>1044013.299228309</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.03560674020654e-06</v>
+        <v>1.546068377254936e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>32</v>
+        <v>31.62760416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>782661.9439029393</v>
+        <v>944374.1352318273</v>
       </c>
     </row>
   </sheetData>
